--- a/web/templates/studyplan.xlsx
+++ b/web/templates/studyplan.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenceslaus/PhpstormProjects/arina/web/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F56D290-7A93-E346-8055-BF33D727B020}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{25CBBDC9-5674-9C46-BD34-22F8C5810841}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титул" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Титул!$A$1:$BE$59</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">План!$3:$8</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
   </numFmts>
@@ -1095,7 +1095,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1217,91 +1217,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1393,6 +1321,93 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1413,27 +1428,11 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1444,13 +1443,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1483,26 +1475,26 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1531,6 +1523,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1555,45 +1551,41 @@
       <alignment horizontal="left" vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Accent" xfId="13"/>
-    <cellStyle name="Accent 1" xfId="14"/>
-    <cellStyle name="Accent 2" xfId="15"/>
-    <cellStyle name="Accent 3" xfId="16"/>
+    <cellStyle name="Accent" xfId="13" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="14" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Bad" xfId="10" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="12"/>
-    <cellStyle name="Footnote" xfId="6"/>
+    <cellStyle name="Error" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Good" xfId="8" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="5" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Status" xfId="7"/>
-    <cellStyle name="Text" xfId="4"/>
-    <cellStyle name="Warning" xfId="11"/>
+    <cellStyle name="Status" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Text" xfId="4" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Warning" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2057,36 +2049,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO187"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:AL9"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="114" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="BC48" sqref="BC48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3" style="1" customWidth="1"/>
-    <col min="8" max="9" width="2.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.1640625" style="1" customWidth="1"/>
-    <col min="13" max="32" width="2.5" style="1" customWidth="1"/>
-    <col min="33" max="33" width="3" style="1" customWidth="1"/>
-    <col min="34" max="34" width="2.6640625" style="1" customWidth="1"/>
-    <col min="35" max="41" width="2.5" style="1" customWidth="1"/>
-    <col min="42" max="42" width="3" style="1" customWidth="1"/>
-    <col min="43" max="43" width="4.5" style="1" customWidth="1"/>
-    <col min="44" max="44" width="4.1640625" style="1" customWidth="1"/>
-    <col min="45" max="48" width="2.5" style="1" customWidth="1"/>
-    <col min="49" max="49" width="2.83203125" style="1" customWidth="1"/>
-    <col min="50" max="58" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="53" width="3.33203125" style="1" customWidth="1"/>
+    <col min="54" max="58" width="2.5" style="1" customWidth="1"/>
     <col min="59" max="59" width="2.6640625" style="1" customWidth="1"/>
     <col min="60" max="64" width="9.1640625" style="2" customWidth="1"/>
     <col min="65" max="65" width="34.5" style="2" customWidth="1"/>
@@ -2095,61 +2069,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
       <c r="AR1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:67">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="AR2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="AR2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="84"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="88"/>
       <c r="BD2" s="6"/>
       <c r="BE2" s="6"/>
     </row>
@@ -2186,15 +2160,15 @@
       <c r="BE3" s="8"/>
     </row>
     <row r="4" spans="1:67">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
       <c r="J4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2220,36 +2194,36 @@
       <c r="BE4" s="6"/>
     </row>
     <row r="5" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="AR5" s="87" t="s">
+      <c r="AR5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AS5" s="87"/>
-      <c r="AT5" s="87"/>
-      <c r="AU5" s="87"/>
-      <c r="AV5" s="87"/>
-      <c r="AW5" s="87"/>
-      <c r="AX5" s="87"/>
-      <c r="AY5" s="87"/>
-      <c r="AZ5" s="87"/>
-      <c r="BA5" s="87"/>
-      <c r="BB5" s="87"/>
-      <c r="BC5" s="87"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="91"/>
+      <c r="AU5" s="91"/>
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="91"/>
+      <c r="AY5" s="91"/>
+      <c r="AZ5" s="91"/>
+      <c r="BA5" s="91"/>
+      <c r="BB5" s="91"/>
+      <c r="BC5" s="91"/>
       <c r="BD5" s="7"/>
       <c r="BE5" s="7"/>
     </row>
@@ -2270,34 +2244,34 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="Q6" s="88" t="s">
+      <c r="Q6" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
-      <c r="AI6" s="88"/>
-      <c r="AJ6" s="88"/>
-      <c r="AK6" s="88"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="88"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="88"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="81"/>
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="81"/>
+      <c r="AK6" s="81"/>
+      <c r="AL6" s="81"/>
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="81"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="81"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
@@ -2314,35 +2288,35 @@
       <c r="BE6" s="9"/>
     </row>
     <row r="7" spans="1:67" ht="10.5" customHeight="1">
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="89"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="82"/>
+      <c r="AO7" s="82"/>
+      <c r="AP7" s="82"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
@@ -2409,46 +2383,46 @@
       <c r="BE8" s="9"/>
     </row>
     <row r="9" spans="1:67" ht="16">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="90"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
       <c r="AO9" s="11"/>
@@ -2486,46 +2460,46 @@
       <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:67" ht="20">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="91"/>
-      <c r="AD11" s="91"/>
-      <c r="AE11" s="91"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="91"/>
-      <c r="AJ11" s="91"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="91"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="84"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="84"/>
       <c r="AM11" s="12"/>
       <c r="AN11" s="13" t="s">
         <v>14</v>
@@ -2534,17 +2508,17 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
+      <c r="AS11" s="85"/>
+      <c r="AT11" s="85"/>
+      <c r="AU11" s="85"/>
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="85"/>
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
@@ -2554,19 +2528,19 @@
     </row>
     <row r="12" spans="1:67" ht="8.25" customHeight="1">
       <c r="AR12" s="9"/>
-      <c r="AS12" s="93" t="s">
+      <c r="AS12" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="93"/>
-      <c r="AW12" s="93"/>
-      <c r="AX12" s="93"/>
-      <c r="AY12" s="93"/>
-      <c r="AZ12" s="93"/>
-      <c r="BA12" s="93"/>
-      <c r="BB12" s="93"/>
-      <c r="BC12" s="93"/>
+      <c r="AT12" s="86"/>
+      <c r="AU12" s="86"/>
+      <c r="AV12" s="86"/>
+      <c r="AW12" s="86"/>
+      <c r="AX12" s="86"/>
+      <c r="AY12" s="86"/>
+      <c r="AZ12" s="86"/>
+      <c r="BA12" s="86"/>
+      <c r="BB12" s="86"/>
+      <c r="BC12" s="86"/>
       <c r="BD12" s="14"/>
       <c r="BE12" s="14"/>
       <c r="BF12" s="14"/>
@@ -2578,42 +2552,42 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="83" t="s">
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="85"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="85"/>
+      <c r="AI13" s="85"/>
+      <c r="AJ13" s="85"/>
+      <c r="AK13" s="85"/>
+      <c r="AL13" s="85"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="7" t="s">
         <v>18</v>
@@ -2636,37 +2610,37 @@
       <c r="BO13" s="1"/>
     </row>
     <row r="14" spans="1:67" ht="9.75" customHeight="1">
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="W14" s="89" t="s">
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="W14" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
@@ -2706,59 +2680,59 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="96"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="96"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="92"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AQ16" s="85" t="s">
+      <c r="AQ16" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="AR16" s="85"/>
-      <c r="AS16" s="85"/>
-      <c r="AT16" s="85"/>
-      <c r="AU16" s="85"/>
-      <c r="AV16" s="85"/>
-      <c r="AW16" s="85"/>
-      <c r="AX16" s="85"/>
-      <c r="AY16" s="85"/>
-      <c r="AZ16" s="85"/>
-      <c r="BA16" s="85"/>
-      <c r="BB16" s="85"/>
-      <c r="BC16" s="85"/>
+      <c r="AR16" s="89"/>
+      <c r="AS16" s="89"/>
+      <c r="AT16" s="89"/>
+      <c r="AU16" s="89"/>
+      <c r="AV16" s="89"/>
+      <c r="AW16" s="89"/>
+      <c r="AX16" s="89"/>
+      <c r="AY16" s="89"/>
+      <c r="AZ16" s="89"/>
+      <c r="BA16" s="89"/>
+      <c r="BB16" s="89"/>
+      <c r="BC16" s="89"/>
       <c r="BE16" s="2"/>
       <c r="BF16" s="2"/>
       <c r="BG16" s="2"/>
@@ -2769,58 +2743,58 @@
       <c r="BL16" s="2"/>
     </row>
     <row r="17" spans="1:67" s="4" customFormat="1" ht="9.75" customHeight="1">
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="93"/>
-      <c r="AJ17" s="93"/>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="93"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="86"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="86"/>
+      <c r="AF17" s="86"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="86"/>
+      <c r="AJ17" s="86"/>
+      <c r="AK17" s="86"/>
+      <c r="AL17" s="86"/>
       <c r="AM17" s="14"/>
-      <c r="AQ17" s="97" t="s">
+      <c r="AQ17" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="AR17" s="97"/>
-      <c r="AS17" s="97"/>
-      <c r="AT17" s="97"/>
-      <c r="AU17" s="97"/>
-      <c r="AV17" s="97"/>
-      <c r="AW17" s="97"/>
-      <c r="AX17" s="97"/>
-      <c r="AY17" s="97"/>
-      <c r="AZ17" s="97"/>
-      <c r="BA17" s="97"/>
-      <c r="BB17" s="97"/>
-      <c r="BC17" s="97"/>
+      <c r="AR17" s="93"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="93"/>
+      <c r="AU17" s="93"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="93"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="93"/>
+      <c r="BA17" s="93"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
       <c r="BE17" s="2"/>
       <c r="BF17" s="2"/>
       <c r="BG17" s="2"/>
@@ -2861,39 +2835,39 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="85"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="85"/>
-      <c r="AE19" s="85"/>
-      <c r="AF19" s="85"/>
-      <c r="AG19" s="85"/>
-      <c r="AH19" s="85"/>
-      <c r="AI19" s="85"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="85"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="89"/>
+      <c r="AI19" s="89"/>
+      <c r="AJ19" s="89"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="89"/>
       <c r="AM19" s="2"/>
       <c r="AQ19" s="16"/>
       <c r="AR19" s="16"/>
@@ -2923,41 +2897,41 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="93"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="86"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
@@ -2976,39 +2950,39 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="93"/>
-      <c r="AJ21" s="93"/>
-      <c r="AK21" s="93"/>
-      <c r="AL21" s="93"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="86"/>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
       <c r="BJ21" s="2"/>
@@ -3026,39 +3000,39 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="98"/>
-      <c r="AI22" s="98"/>
-      <c r="AJ22" s="98"/>
-      <c r="AK22" s="98"/>
-      <c r="AL22" s="98"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="96"/>
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="96"/>
+      <c r="AL22" s="96"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
@@ -3077,41 +3051,41 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="93" t="s">
+      <c r="F23" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="93"/>
-      <c r="AK23" s="93"/>
-      <c r="AL23" s="93"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="86"/>
+      <c r="AL23" s="86"/>
       <c r="AM23" s="14"/>
       <c r="AN23" s="14"/>
       <c r="AO23" s="14"/>
@@ -3151,41 +3125,41 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="85" t="s">
+      <c r="F25" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="85"/>
-      <c r="AH25" s="85"/>
-      <c r="AI25" s="85"/>
-      <c r="AJ25" s="85"/>
-      <c r="AK25" s="85"/>
-      <c r="AL25" s="85"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="89"/>
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="89"/>
+      <c r="AJ25" s="89"/>
+      <c r="AK25" s="89"/>
+      <c r="AL25" s="89"/>
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
       <c r="BH25" s="2"/>
@@ -3203,41 +3177,41 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="93"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="93"/>
-      <c r="AK26" s="93"/>
-      <c r="AL26" s="93"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="86"/>
+      <c r="AK26" s="86"/>
+      <c r="AL26" s="86"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="14"/>
       <c r="BH26" s="2"/>
@@ -3260,147 +3234,147 @@
       <c r="BO27" s="2"/>
     </row>
     <row r="28" spans="1:67">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="83"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="83"/>
-      <c r="AE28" s="83"/>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="83"/>
-      <c r="AH28" s="83"/>
-      <c r="AI28" s="83"/>
-      <c r="AJ28" s="83"/>
-      <c r="AK28" s="83"/>
-      <c r="AL28" s="83"/>
-      <c r="AM28" s="83"/>
-      <c r="AN28" s="83"/>
-      <c r="AO28" s="83"/>
-      <c r="AP28" s="83"/>
-      <c r="AQ28" s="83"/>
-      <c r="AR28" s="83"/>
-      <c r="AS28" s="83"/>
-      <c r="AT28" s="83"/>
-      <c r="AU28" s="83"/>
-      <c r="AV28" s="83"/>
-      <c r="AW28" s="83"/>
-      <c r="AX28" s="83"/>
-      <c r="AY28" s="83"/>
-      <c r="AZ28" s="83"/>
-      <c r="BA28" s="83"/>
-      <c r="BB28" s="83"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="87"/>
+      <c r="AE28" s="87"/>
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="87"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="87"/>
+      <c r="AL28" s="87"/>
+      <c r="AM28" s="87"/>
+      <c r="AN28" s="87"/>
+      <c r="AO28" s="87"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="87"/>
+      <c r="AS28" s="87"/>
+      <c r="AT28" s="87"/>
+      <c r="AU28" s="87"/>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="87"/>
+      <c r="AZ28" s="87"/>
+      <c r="BA28" s="87"/>
+      <c r="BB28" s="87"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
       <c r="BE28" s="7"/>
     </row>
     <row r="29" spans="1:67" ht="6" customHeight="1"/>
     <row r="30" spans="1:67" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="101" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="100" t="s">
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="101" t="s">
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="100" t="s">
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
-      <c r="X30" s="101" t="s">
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="100" t="s">
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="AC30" s="100"/>
-      <c r="AD30" s="100"/>
-      <c r="AE30" s="100"/>
-      <c r="AF30" s="101" t="s">
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="AG30" s="101"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="101"/>
-      <c r="AJ30" s="100" t="s">
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="99"/>
+      <c r="AJ30" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="AK30" s="100"/>
-      <c r="AL30" s="100"/>
-      <c r="AM30" s="100"/>
-      <c r="AN30" s="100"/>
-      <c r="AO30" s="101" t="s">
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="98"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="AP30" s="101"/>
-      <c r="AQ30" s="101"/>
-      <c r="AR30" s="101"/>
-      <c r="AS30" s="100" t="s">
+      <c r="AP30" s="99"/>
+      <c r="AQ30" s="99"/>
+      <c r="AR30" s="99"/>
+      <c r="AS30" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AT30" s="100"/>
-      <c r="AU30" s="100"/>
-      <c r="AV30" s="100"/>
-      <c r="AW30" s="100"/>
-      <c r="AX30" s="102" t="s">
+      <c r="AT30" s="98"/>
+      <c r="AU30" s="98"/>
+      <c r="AV30" s="98"/>
+      <c r="AW30" s="98"/>
+      <c r="AX30" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="AY30" s="102"/>
-      <c r="AZ30" s="102"/>
-      <c r="BA30" s="102"/>
+      <c r="AY30" s="100"/>
+      <c r="AZ30" s="100"/>
+      <c r="BA30" s="100"/>
       <c r="BG30" s="2"/>
       <c r="BH30" s="2"/>
       <c r="BI30" s="2"/>
@@ -3411,7 +3385,7 @@
       <c r="BN30" s="2"/>
     </row>
     <row r="31" spans="1:67" s="23" customFormat="1">
-      <c r="A31" s="99"/>
+      <c r="A31" s="97"/>
       <c r="B31" s="18">
         <v>1</v>
       </c>
@@ -3797,253 +3771,253 @@
       <c r="AL35" s="26"/>
       <c r="AM35" s="26"/>
       <c r="AN35" s="29"/>
-      <c r="AO35" s="34"/>
-      <c r="AP35" s="35"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="37"/>
-      <c r="AS35" s="34"/>
-      <c r="AT35" s="35"/>
-      <c r="AU35" s="35"/>
-      <c r="AV35" s="35"/>
-      <c r="AW35" s="37"/>
-      <c r="AX35" s="38"/>
-      <c r="AY35" s="35"/>
-      <c r="AZ35" s="35"/>
-      <c r="BA35" s="39"/>
+      <c r="AO35" s="65"/>
+      <c r="AP35" s="34"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="66"/>
+      <c r="AS35" s="65"/>
+      <c r="AT35" s="34"/>
+      <c r="AU35" s="34"/>
+      <c r="AV35" s="34"/>
+      <c r="AW35" s="66"/>
+      <c r="AX35" s="67"/>
+      <c r="AY35" s="34"/>
+      <c r="AZ35" s="34"/>
+      <c r="BA35" s="27"/>
       <c r="BG35" s="2"/>
       <c r="BO35" s="1"/>
     </row>
     <row r="36" spans="1:67">
-      <c r="A36" s="40"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="37"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="35"/>
-      <c r="AI36" s="41"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="35"/>
-      <c r="AL36" s="35"/>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="34"/>
-      <c r="AP36" s="35"/>
-      <c r="AQ36" s="35"/>
-      <c r="AR36" s="37"/>
-      <c r="AS36" s="34"/>
-      <c r="AT36" s="35"/>
-      <c r="AU36" s="35"/>
-      <c r="AV36" s="35"/>
-      <c r="AW36" s="37"/>
-      <c r="AX36" s="38"/>
-      <c r="AY36" s="35"/>
-      <c r="AZ36" s="35"/>
-      <c r="BA36" s="39"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="34"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="68"/>
+      <c r="AO36" s="65"/>
+      <c r="AP36" s="34"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="66"/>
+      <c r="AS36" s="65"/>
+      <c r="AT36" s="34"/>
+      <c r="AU36" s="34"/>
+      <c r="AV36" s="34"/>
+      <c r="AW36" s="66"/>
+      <c r="AX36" s="67"/>
+      <c r="AY36" s="34"/>
+      <c r="AZ36" s="34"/>
+      <c r="BA36" s="27"/>
       <c r="BG36" s="2"/>
       <c r="BO36" s="1"/>
     </row>
     <row r="37" spans="1:67">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="43"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="44"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="46"/>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="43"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
-      <c r="AM37" s="44"/>
-      <c r="AN37" s="47"/>
-      <c r="AO37" s="43"/>
-      <c r="AP37" s="44"/>
-      <c r="AQ37" s="44"/>
-      <c r="AR37" s="45"/>
-      <c r="AS37" s="43"/>
-      <c r="AT37" s="44"/>
-      <c r="AU37" s="44"/>
-      <c r="AV37" s="44"/>
-      <c r="AW37" s="45"/>
-      <c r="AX37" s="46"/>
-      <c r="AY37" s="44"/>
-      <c r="AZ37" s="44"/>
-      <c r="BA37" s="48"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="70"/>
+      <c r="Z37" s="70"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="69"/>
+      <c r="AC37" s="70"/>
+      <c r="AD37" s="70"/>
+      <c r="AE37" s="71"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="70"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="73"/>
+      <c r="AJ37" s="69"/>
+      <c r="AK37" s="70"/>
+      <c r="AL37" s="70"/>
+      <c r="AM37" s="70"/>
+      <c r="AN37" s="73"/>
+      <c r="AO37" s="69"/>
+      <c r="AP37" s="70"/>
+      <c r="AQ37" s="70"/>
+      <c r="AR37" s="71"/>
+      <c r="AS37" s="69"/>
+      <c r="AT37" s="70"/>
+      <c r="AU37" s="70"/>
+      <c r="AV37" s="70"/>
+      <c r="AW37" s="71"/>
+      <c r="AX37" s="72"/>
+      <c r="AY37" s="70"/>
+      <c r="AZ37" s="70"/>
+      <c r="BA37" s="74"/>
       <c r="BG37" s="2"/>
       <c r="BO37" s="1"/>
     </row>
     <row r="38" spans="1:67">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="44"/>
-      <c r="AI38" s="47"/>
-      <c r="AJ38" s="43"/>
-      <c r="AK38" s="44"/>
-      <c r="AL38" s="44"/>
-      <c r="AM38" s="44"/>
-      <c r="AN38" s="47"/>
-      <c r="AO38" s="43"/>
-      <c r="AP38" s="44"/>
-      <c r="AQ38" s="44"/>
-      <c r="AR38" s="45"/>
-      <c r="AS38" s="43"/>
-      <c r="AT38" s="44"/>
-      <c r="AU38" s="44"/>
-      <c r="AV38" s="44"/>
-      <c r="AW38" s="45"/>
-      <c r="AX38" s="46"/>
-      <c r="AY38" s="44"/>
-      <c r="AZ38" s="44"/>
-      <c r="BA38" s="48"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="69"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="70"/>
+      <c r="AE38" s="71"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="70"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="73"/>
+      <c r="AJ38" s="69"/>
+      <c r="AK38" s="70"/>
+      <c r="AL38" s="70"/>
+      <c r="AM38" s="70"/>
+      <c r="AN38" s="73"/>
+      <c r="AO38" s="69"/>
+      <c r="AP38" s="70"/>
+      <c r="AQ38" s="70"/>
+      <c r="AR38" s="71"/>
+      <c r="AS38" s="69"/>
+      <c r="AT38" s="70"/>
+      <c r="AU38" s="70"/>
+      <c r="AV38" s="70"/>
+      <c r="AW38" s="71"/>
+      <c r="AX38" s="72"/>
+      <c r="AY38" s="70"/>
+      <c r="AZ38" s="70"/>
+      <c r="BA38" s="74"/>
       <c r="BG38" s="2"/>
       <c r="BO38" s="1"/>
     </row>
     <row r="39" spans="1:67">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="51"/>
-      <c r="AH39" s="51"/>
-      <c r="AI39" s="54"/>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="54"/>
-      <c r="AO39" s="50"/>
-      <c r="AP39" s="51"/>
-      <c r="AQ39" s="51"/>
-      <c r="AR39" s="52"/>
-      <c r="AS39" s="50"/>
-      <c r="AT39" s="51"/>
-      <c r="AU39" s="51"/>
-      <c r="AV39" s="51"/>
-      <c r="AW39" s="52"/>
-      <c r="AX39" s="53"/>
-      <c r="AY39" s="51"/>
-      <c r="AZ39" s="51"/>
-      <c r="BA39" s="55"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="76"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="76"/>
+      <c r="Z39" s="76"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="76"/>
+      <c r="AD39" s="76"/>
+      <c r="AE39" s="77"/>
+      <c r="AF39" s="78"/>
+      <c r="AG39" s="76"/>
+      <c r="AH39" s="76"/>
+      <c r="AI39" s="79"/>
+      <c r="AJ39" s="75"/>
+      <c r="AK39" s="76"/>
+      <c r="AL39" s="76"/>
+      <c r="AM39" s="76"/>
+      <c r="AN39" s="79"/>
+      <c r="AO39" s="75"/>
+      <c r="AP39" s="76"/>
+      <c r="AQ39" s="76"/>
+      <c r="AR39" s="77"/>
+      <c r="AS39" s="75"/>
+      <c r="AT39" s="76"/>
+      <c r="AU39" s="76"/>
+      <c r="AV39" s="76"/>
+      <c r="AW39" s="77"/>
+      <c r="AX39" s="78"/>
+      <c r="AY39" s="76"/>
+      <c r="AZ39" s="76"/>
+      <c r="BA39" s="80"/>
       <c r="BG39" s="2"/>
       <c r="BO39" s="1"/>
     </row>
     <row r="40" spans="1:67" ht="4.5" customHeight="1"/>
     <row r="41" spans="1:67">
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="38" t="s">
         <v>51</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -4052,1172 +4026,1172 @@
     </row>
     <row r="42" spans="1:67" ht="3.75" customHeight="1"/>
     <row r="43" spans="1:67" ht="12.75" customHeight="1">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="83"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="87"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="83" t="s">
+      <c r="T43" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="U43" s="83"/>
-      <c r="V43" s="83"/>
-      <c r="W43" s="83"/>
-      <c r="X43" s="83"/>
-      <c r="Y43" s="83"/>
-      <c r="Z43" s="83"/>
-      <c r="AA43" s="83"/>
-      <c r="AB43" s="83"/>
-      <c r="AC43" s="83"/>
-      <c r="AD43" s="83"/>
-      <c r="AE43" s="83"/>
-      <c r="AF43" s="83"/>
-      <c r="AG43" s="83"/>
-      <c r="AH43" s="83"/>
+      <c r="U43" s="87"/>
+      <c r="V43" s="87"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="87"/>
+      <c r="Y43" s="87"/>
+      <c r="Z43" s="87"/>
+      <c r="AA43" s="87"/>
+      <c r="AB43" s="87"/>
+      <c r="AC43" s="87"/>
+      <c r="AD43" s="87"/>
+      <c r="AE43" s="87"/>
+      <c r="AF43" s="87"/>
+      <c r="AG43" s="87"/>
+      <c r="AH43" s="87"/>
       <c r="AI43" s="7"/>
-      <c r="AJ43" s="83" t="s">
+      <c r="AJ43" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="AK43" s="83"/>
-      <c r="AL43" s="83"/>
-      <c r="AM43" s="83"/>
-      <c r="AN43" s="83"/>
-      <c r="AO43" s="83"/>
-      <c r="AP43" s="83"/>
-      <c r="AQ43" s="83"/>
-      <c r="AR43" s="83"/>
-      <c r="AS43" s="83"/>
-      <c r="AT43" s="83"/>
-      <c r="AU43" s="83"/>
-      <c r="AV43" s="83"/>
-      <c r="AW43" s="83"/>
-      <c r="AX43" s="83"/>
-      <c r="AY43" s="83"/>
-      <c r="AZ43" s="83"/>
-      <c r="BA43" s="83"/>
-      <c r="BB43" s="83"/>
-      <c r="BC43" s="83"/>
+      <c r="AK43" s="87"/>
+      <c r="AL43" s="87"/>
+      <c r="AM43" s="87"/>
+      <c r="AN43" s="87"/>
+      <c r="AO43" s="87"/>
+      <c r="AP43" s="87"/>
+      <c r="AQ43" s="87"/>
+      <c r="AR43" s="87"/>
+      <c r="AS43" s="87"/>
+      <c r="AT43" s="87"/>
+      <c r="AU43" s="87"/>
+      <c r="AV43" s="87"/>
+      <c r="AW43" s="87"/>
+      <c r="AX43" s="87"/>
+      <c r="AY43" s="87"/>
+      <c r="AZ43" s="87"/>
+      <c r="BA43" s="87"/>
+      <c r="BB43" s="87"/>
+      <c r="BC43" s="87"/>
       <c r="BD43" s="17"/>
       <c r="BE43" s="17"/>
     </row>
     <row r="44" spans="1:67" ht="4.5" customHeight="1"/>
     <row r="45" spans="1:67" ht="65.25" customHeight="1">
-      <c r="A45" s="103" t="s">
+      <c r="A45" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="104" t="s">
+      <c r="B45" s="101"/>
+      <c r="C45" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105" t="s">
+      <c r="D45" s="102"/>
+      <c r="E45" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105" t="s">
+      <c r="F45" s="103"/>
+      <c r="G45" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105" t="s">
+      <c r="H45" s="103"/>
+      <c r="I45" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105" t="s">
+      <c r="J45" s="103"/>
+      <c r="K45" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105" t="s">
+      <c r="L45" s="103"/>
+      <c r="M45" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="N45" s="105"/>
-      <c r="O45" s="105"/>
-      <c r="P45" s="106" t="s">
+      <c r="N45" s="103"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="106"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="108"/>
       <c r="S45" s="10"/>
-      <c r="T45" s="103" t="s">
+      <c r="T45" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="U45" s="103"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="103"/>
-      <c r="X45" s="103"/>
-      <c r="Y45" s="103"/>
-      <c r="Z45" s="103"/>
-      <c r="AA45" s="103"/>
-      <c r="AB45" s="103"/>
-      <c r="AC45" s="103"/>
-      <c r="AD45" s="103"/>
-      <c r="AE45" s="103"/>
-      <c r="AF45" s="57" t="s">
+      <c r="U45" s="101"/>
+      <c r="V45" s="101"/>
+      <c r="W45" s="101"/>
+      <c r="X45" s="101"/>
+      <c r="Y45" s="101"/>
+      <c r="Z45" s="101"/>
+      <c r="AA45" s="101"/>
+      <c r="AB45" s="101"/>
+      <c r="AC45" s="101"/>
+      <c r="AD45" s="101"/>
+      <c r="AE45" s="101"/>
+      <c r="AF45" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="AG45" s="103" t="s">
+      <c r="AG45" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="AH45" s="103"/>
-      <c r="AI45" s="58"/>
-      <c r="AJ45" s="103" t="s">
+      <c r="AH45" s="101"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="AK45" s="103"/>
-      <c r="AL45" s="103"/>
-      <c r="AM45" s="103"/>
-      <c r="AN45" s="103"/>
-      <c r="AO45" s="103"/>
-      <c r="AP45" s="103"/>
-      <c r="AQ45" s="103"/>
-      <c r="AR45" s="103"/>
-      <c r="AS45" s="103"/>
-      <c r="AT45" s="103" t="s">
+      <c r="AK45" s="101"/>
+      <c r="AL45" s="101"/>
+      <c r="AM45" s="101"/>
+      <c r="AN45" s="101"/>
+      <c r="AO45" s="101"/>
+      <c r="AP45" s="101"/>
+      <c r="AQ45" s="101"/>
+      <c r="AR45" s="101"/>
+      <c r="AS45" s="101"/>
+      <c r="AT45" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="AU45" s="103"/>
-      <c r="AV45" s="103"/>
-      <c r="AW45" s="103"/>
-      <c r="AX45" s="103"/>
-      <c r="AY45" s="103"/>
-      <c r="AZ45" s="103"/>
-      <c r="BA45" s="103"/>
-      <c r="BB45" s="103"/>
-      <c r="BC45" s="59" t="s">
+      <c r="AU45" s="101"/>
+      <c r="AV45" s="101"/>
+      <c r="AW45" s="101"/>
+      <c r="AX45" s="101"/>
+      <c r="AY45" s="101"/>
+      <c r="AZ45" s="101"/>
+      <c r="BA45" s="101"/>
+      <c r="BB45" s="101"/>
+      <c r="BC45" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:67">
-      <c r="A46" s="107"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="107"/>
-      <c r="N46" s="107"/>
-      <c r="O46" s="107"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="110"/>
-      <c r="U46" s="110"/>
-      <c r="V46" s="110"/>
-      <c r="W46" s="110"/>
-      <c r="X46" s="110"/>
-      <c r="Y46" s="110"/>
-      <c r="Z46" s="110"/>
-      <c r="AA46" s="110"/>
-      <c r="AB46" s="110"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="110"/>
-      <c r="AE46" s="110"/>
-      <c r="AF46" s="61"/>
-      <c r="AG46" s="111"/>
-      <c r="AH46" s="111"/>
-      <c r="AI46" s="62"/>
-      <c r="AJ46" s="112"/>
-      <c r="AK46" s="112"/>
-      <c r="AL46" s="112"/>
-      <c r="AM46" s="112"/>
-      <c r="AN46" s="112"/>
-      <c r="AO46" s="112"/>
-      <c r="AP46" s="112"/>
-      <c r="AQ46" s="112"/>
-      <c r="AR46" s="112"/>
-      <c r="AS46" s="112"/>
-      <c r="AT46" s="113"/>
-      <c r="AU46" s="113"/>
-      <c r="AV46" s="113"/>
-      <c r="AW46" s="113"/>
-      <c r="AX46" s="113"/>
-      <c r="AY46" s="113"/>
-      <c r="AZ46" s="113"/>
-      <c r="BA46" s="113"/>
-      <c r="BB46" s="113"/>
-      <c r="BC46" s="63"/>
+      <c r="A46" s="104"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="106"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="107"/>
+      <c r="U46" s="107"/>
+      <c r="V46" s="107"/>
+      <c r="W46" s="107"/>
+      <c r="X46" s="107"/>
+      <c r="Y46" s="107"/>
+      <c r="Z46" s="107"/>
+      <c r="AA46" s="107"/>
+      <c r="AB46" s="107"/>
+      <c r="AC46" s="107"/>
+      <c r="AD46" s="107"/>
+      <c r="AE46" s="107"/>
+      <c r="AF46" s="43"/>
+      <c r="AG46" s="109"/>
+      <c r="AH46" s="109"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="110"/>
+      <c r="AK46" s="110"/>
+      <c r="AL46" s="110"/>
+      <c r="AM46" s="110"/>
+      <c r="AN46" s="110"/>
+      <c r="AO46" s="110"/>
+      <c r="AP46" s="110"/>
+      <c r="AQ46" s="110"/>
+      <c r="AR46" s="110"/>
+      <c r="AS46" s="110"/>
+      <c r="AT46" s="111"/>
+      <c r="AU46" s="111"/>
+      <c r="AV46" s="111"/>
+      <c r="AW46" s="111"/>
+      <c r="AX46" s="111"/>
+      <c r="AY46" s="111"/>
+      <c r="AZ46" s="111"/>
+      <c r="BA46" s="111"/>
+      <c r="BB46" s="111"/>
+      <c r="BC46" s="45"/>
       <c r="BF46" s="2"/>
       <c r="BG46" s="2"/>
       <c r="BN46" s="1"/>
       <c r="BO46" s="1"/>
     </row>
     <row r="47" spans="1:67">
-      <c r="A47" s="107"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="107"/>
-      <c r="O47" s="107"/>
-      <c r="P47" s="109"/>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="109"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="110"/>
-      <c r="U47" s="110"/>
-      <c r="V47" s="110"/>
-      <c r="W47" s="110"/>
-      <c r="X47" s="110"/>
-      <c r="Y47" s="110"/>
-      <c r="Z47" s="110"/>
-      <c r="AA47" s="110"/>
-      <c r="AB47" s="110"/>
-      <c r="AC47" s="110"/>
-      <c r="AD47" s="110"/>
-      <c r="AE47" s="110"/>
-      <c r="AF47" s="61"/>
-      <c r="AG47" s="111"/>
-      <c r="AH47" s="111"/>
-      <c r="AI47" s="62"/>
-      <c r="AJ47" s="112"/>
-      <c r="AK47" s="112"/>
-      <c r="AL47" s="112"/>
-      <c r="AM47" s="112"/>
-      <c r="AN47" s="112"/>
-      <c r="AO47" s="112"/>
-      <c r="AP47" s="112"/>
-      <c r="AQ47" s="112"/>
-      <c r="AR47" s="112"/>
-      <c r="AS47" s="112"/>
-      <c r="AT47" s="113"/>
-      <c r="AU47" s="113"/>
-      <c r="AV47" s="113"/>
-      <c r="AW47" s="113"/>
-      <c r="AX47" s="113"/>
-      <c r="AY47" s="113"/>
-      <c r="AZ47" s="113"/>
-      <c r="BA47" s="113"/>
-      <c r="BB47" s="113"/>
-      <c r="BC47" s="63"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="106"/>
+      <c r="R47" s="106"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="107"/>
+      <c r="U47" s="107"/>
+      <c r="V47" s="107"/>
+      <c r="W47" s="107"/>
+      <c r="X47" s="107"/>
+      <c r="Y47" s="107"/>
+      <c r="Z47" s="107"/>
+      <c r="AA47" s="107"/>
+      <c r="AB47" s="107"/>
+      <c r="AC47" s="107"/>
+      <c r="AD47" s="107"/>
+      <c r="AE47" s="107"/>
+      <c r="AF47" s="43"/>
+      <c r="AG47" s="109"/>
+      <c r="AH47" s="109"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="110"/>
+      <c r="AK47" s="110"/>
+      <c r="AL47" s="110"/>
+      <c r="AM47" s="110"/>
+      <c r="AN47" s="110"/>
+      <c r="AO47" s="110"/>
+      <c r="AP47" s="110"/>
+      <c r="AQ47" s="110"/>
+      <c r="AR47" s="110"/>
+      <c r="AS47" s="110"/>
+      <c r="AT47" s="111"/>
+      <c r="AU47" s="111"/>
+      <c r="AV47" s="111"/>
+      <c r="AW47" s="111"/>
+      <c r="AX47" s="111"/>
+      <c r="AY47" s="111"/>
+      <c r="AZ47" s="111"/>
+      <c r="BA47" s="111"/>
+      <c r="BB47" s="111"/>
+      <c r="BC47" s="45"/>
       <c r="BF47" s="2"/>
       <c r="BG47" s="2"/>
       <c r="BN47" s="1"/>
       <c r="BO47" s="1"/>
     </row>
     <row r="48" spans="1:67">
-      <c r="A48" s="107"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="108"/>
-      <c r="M48" s="107"/>
-      <c r="N48" s="107"/>
-      <c r="O48" s="107"/>
-      <c r="P48" s="109"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="110"/>
-      <c r="U48" s="110"/>
-      <c r="V48" s="110"/>
-      <c r="W48" s="110"/>
-      <c r="X48" s="110"/>
-      <c r="Y48" s="110"/>
-      <c r="Z48" s="110"/>
-      <c r="AA48" s="110"/>
-      <c r="AB48" s="110"/>
-      <c r="AC48" s="110"/>
-      <c r="AD48" s="110"/>
-      <c r="AE48" s="110"/>
-      <c r="AF48" s="61"/>
-      <c r="AG48" s="111"/>
-      <c r="AH48" s="111"/>
-      <c r="AI48" s="62"/>
-      <c r="AJ48" s="112"/>
-      <c r="AK48" s="112"/>
-      <c r="AL48" s="112"/>
-      <c r="AM48" s="112"/>
-      <c r="AN48" s="112"/>
-      <c r="AO48" s="112"/>
-      <c r="AP48" s="112"/>
-      <c r="AQ48" s="112"/>
-      <c r="AR48" s="112"/>
-      <c r="AS48" s="112"/>
-      <c r="AT48" s="113"/>
-      <c r="AU48" s="113"/>
-      <c r="AV48" s="113"/>
-      <c r="AW48" s="113"/>
-      <c r="AX48" s="113"/>
-      <c r="AY48" s="113"/>
-      <c r="AZ48" s="113"/>
-      <c r="BA48" s="113"/>
-      <c r="BB48" s="113"/>
-      <c r="BC48" s="63"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="104"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="106"/>
+      <c r="R48" s="106"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="107"/>
+      <c r="U48" s="107"/>
+      <c r="V48" s="107"/>
+      <c r="W48" s="107"/>
+      <c r="X48" s="107"/>
+      <c r="Y48" s="107"/>
+      <c r="Z48" s="107"/>
+      <c r="AA48" s="107"/>
+      <c r="AB48" s="107"/>
+      <c r="AC48" s="107"/>
+      <c r="AD48" s="107"/>
+      <c r="AE48" s="107"/>
+      <c r="AF48" s="43"/>
+      <c r="AG48" s="109"/>
+      <c r="AH48" s="109"/>
+      <c r="AI48" s="44"/>
+      <c r="AJ48" s="110"/>
+      <c r="AK48" s="110"/>
+      <c r="AL48" s="110"/>
+      <c r="AM48" s="110"/>
+      <c r="AN48" s="110"/>
+      <c r="AO48" s="110"/>
+      <c r="AP48" s="110"/>
+      <c r="AQ48" s="110"/>
+      <c r="AR48" s="110"/>
+      <c r="AS48" s="110"/>
+      <c r="AT48" s="111"/>
+      <c r="AU48" s="111"/>
+      <c r="AV48" s="111"/>
+      <c r="AW48" s="111"/>
+      <c r="AX48" s="111"/>
+      <c r="AY48" s="111"/>
+      <c r="AZ48" s="111"/>
+      <c r="BA48" s="111"/>
+      <c r="BB48" s="111"/>
+      <c r="BC48" s="45"/>
       <c r="BF48" s="2"/>
       <c r="BG48" s="2"/>
       <c r="BN48" s="1"/>
       <c r="BO48" s="1"/>
     </row>
     <row r="49" spans="1:67">
-      <c r="A49" s="107"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="107"/>
-      <c r="N49" s="107"/>
-      <c r="O49" s="107"/>
-      <c r="P49" s="109"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="109"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="110"/>
-      <c r="U49" s="110"/>
-      <c r="V49" s="110"/>
-      <c r="W49" s="110"/>
-      <c r="X49" s="110"/>
-      <c r="Y49" s="110"/>
-      <c r="Z49" s="110"/>
-      <c r="AA49" s="110"/>
-      <c r="AB49" s="110"/>
-      <c r="AC49" s="110"/>
-      <c r="AD49" s="110"/>
-      <c r="AE49" s="110"/>
-      <c r="AF49" s="61"/>
-      <c r="AG49" s="111"/>
-      <c r="AH49" s="111"/>
-      <c r="AI49" s="62"/>
-      <c r="AJ49" s="112"/>
-      <c r="AK49" s="112"/>
-      <c r="AL49" s="112"/>
-      <c r="AM49" s="112"/>
-      <c r="AN49" s="112"/>
-      <c r="AO49" s="112"/>
-      <c r="AP49" s="112"/>
-      <c r="AQ49" s="112"/>
-      <c r="AR49" s="112"/>
-      <c r="AS49" s="112"/>
-      <c r="AT49" s="114"/>
-      <c r="AU49" s="114"/>
-      <c r="AV49" s="114"/>
-      <c r="AW49" s="114"/>
-      <c r="AX49" s="114"/>
-      <c r="AY49" s="114"/>
-      <c r="AZ49" s="114"/>
-      <c r="BA49" s="114"/>
-      <c r="BB49" s="114"/>
-      <c r="BC49" s="64"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="104"/>
+      <c r="P49" s="106"/>
+      <c r="Q49" s="106"/>
+      <c r="R49" s="106"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="107"/>
+      <c r="U49" s="107"/>
+      <c r="V49" s="107"/>
+      <c r="W49" s="107"/>
+      <c r="X49" s="107"/>
+      <c r="Y49" s="107"/>
+      <c r="Z49" s="107"/>
+      <c r="AA49" s="107"/>
+      <c r="AB49" s="107"/>
+      <c r="AC49" s="107"/>
+      <c r="AD49" s="107"/>
+      <c r="AE49" s="107"/>
+      <c r="AF49" s="43"/>
+      <c r="AG49" s="109"/>
+      <c r="AH49" s="109"/>
+      <c r="AI49" s="44"/>
+      <c r="AJ49" s="110"/>
+      <c r="AK49" s="110"/>
+      <c r="AL49" s="110"/>
+      <c r="AM49" s="110"/>
+      <c r="AN49" s="110"/>
+      <c r="AO49" s="110"/>
+      <c r="AP49" s="110"/>
+      <c r="AQ49" s="110"/>
+      <c r="AR49" s="110"/>
+      <c r="AS49" s="110"/>
+      <c r="AT49" s="112"/>
+      <c r="AU49" s="112"/>
+      <c r="AV49" s="112"/>
+      <c r="AW49" s="112"/>
+      <c r="AX49" s="112"/>
+      <c r="AY49" s="112"/>
+      <c r="AZ49" s="112"/>
+      <c r="BA49" s="112"/>
+      <c r="BB49" s="112"/>
+      <c r="BC49" s="46"/>
       <c r="BF49" s="2"/>
       <c r="BG49" s="2"/>
       <c r="BN49" s="1"/>
       <c r="BO49" s="1"/>
     </row>
     <row r="50" spans="1:67" ht="12.75" customHeight="1">
-      <c r="A50" s="115"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="109"/>
-      <c r="N50" s="109"/>
-      <c r="O50" s="109"/>
-      <c r="P50" s="109"/>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="60"/>
-      <c r="T50" s="110"/>
-      <c r="U50" s="110"/>
-      <c r="V50" s="110"/>
-      <c r="W50" s="110"/>
-      <c r="X50" s="110"/>
-      <c r="Y50" s="110"/>
-      <c r="Z50" s="110"/>
-      <c r="AA50" s="110"/>
-      <c r="AB50" s="110"/>
-      <c r="AC50" s="110"/>
-      <c r="AD50" s="110"/>
-      <c r="AE50" s="110"/>
-      <c r="AF50" s="61"/>
-      <c r="AG50" s="111"/>
-      <c r="AH50" s="111"/>
-      <c r="AI50" s="62"/>
-      <c r="AJ50" s="112"/>
-      <c r="AK50" s="112"/>
-      <c r="AL50" s="112"/>
-      <c r="AM50" s="112"/>
-      <c r="AN50" s="112"/>
-      <c r="AO50" s="112"/>
-      <c r="AP50" s="112"/>
-      <c r="AQ50" s="112"/>
-      <c r="AR50" s="112"/>
-      <c r="AS50" s="112"/>
-      <c r="AT50" s="116"/>
-      <c r="AU50" s="116"/>
-      <c r="AV50" s="116"/>
-      <c r="AW50" s="116"/>
-      <c r="AX50" s="116"/>
-      <c r="AY50" s="116"/>
-      <c r="AZ50" s="116"/>
-      <c r="BA50" s="116"/>
-      <c r="BB50" s="116"/>
-      <c r="BC50" s="64"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="109"/>
+      <c r="L50" s="109"/>
+      <c r="M50" s="106"/>
+      <c r="N50" s="106"/>
+      <c r="O50" s="106"/>
+      <c r="P50" s="106"/>
+      <c r="Q50" s="106"/>
+      <c r="R50" s="106"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="107"/>
+      <c r="U50" s="107"/>
+      <c r="V50" s="107"/>
+      <c r="W50" s="107"/>
+      <c r="X50" s="107"/>
+      <c r="Y50" s="107"/>
+      <c r="Z50" s="107"/>
+      <c r="AA50" s="107"/>
+      <c r="AB50" s="107"/>
+      <c r="AC50" s="107"/>
+      <c r="AD50" s="107"/>
+      <c r="AE50" s="107"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="109"/>
+      <c r="AH50" s="109"/>
+      <c r="AI50" s="44"/>
+      <c r="AJ50" s="110"/>
+      <c r="AK50" s="110"/>
+      <c r="AL50" s="110"/>
+      <c r="AM50" s="110"/>
+      <c r="AN50" s="110"/>
+      <c r="AO50" s="110"/>
+      <c r="AP50" s="110"/>
+      <c r="AQ50" s="110"/>
+      <c r="AR50" s="110"/>
+      <c r="AS50" s="110"/>
+      <c r="AT50" s="114"/>
+      <c r="AU50" s="114"/>
+      <c r="AV50" s="114"/>
+      <c r="AW50" s="114"/>
+      <c r="AX50" s="114"/>
+      <c r="AY50" s="114"/>
+      <c r="AZ50" s="114"/>
+      <c r="BA50" s="114"/>
+      <c r="BB50" s="114"/>
+      <c r="BC50" s="46"/>
       <c r="BF50" s="2"/>
       <c r="BG50" s="2"/>
       <c r="BN50" s="1"/>
       <c r="BO50" s="1"/>
     </row>
     <row r="51" spans="1:67">
-      <c r="A51" s="107"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="108"/>
-      <c r="L51" s="108"/>
-      <c r="M51" s="107"/>
-      <c r="N51" s="107"/>
-      <c r="O51" s="107"/>
-      <c r="P51" s="109"/>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="110"/>
-      <c r="U51" s="110"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="110"/>
-      <c r="X51" s="110"/>
-      <c r="Y51" s="110"/>
-      <c r="Z51" s="110"/>
-      <c r="AA51" s="110"/>
-      <c r="AB51" s="110"/>
-      <c r="AC51" s="110"/>
-      <c r="AD51" s="110"/>
-      <c r="AE51" s="110"/>
-      <c r="AF51" s="61"/>
-      <c r="AG51" s="111"/>
-      <c r="AH51" s="111"/>
-      <c r="AI51" s="62"/>
-      <c r="AJ51" s="112"/>
-      <c r="AK51" s="112"/>
-      <c r="AL51" s="112"/>
-      <c r="AM51" s="112"/>
-      <c r="AN51" s="112"/>
-      <c r="AO51" s="112"/>
-      <c r="AP51" s="112"/>
-      <c r="AQ51" s="112"/>
-      <c r="AR51" s="112"/>
-      <c r="AS51" s="112"/>
-      <c r="AT51" s="116"/>
-      <c r="AU51" s="116"/>
-      <c r="AV51" s="116"/>
-      <c r="AW51" s="116"/>
-      <c r="AX51" s="116"/>
-      <c r="AY51" s="116"/>
-      <c r="AZ51" s="116"/>
-      <c r="BA51" s="116"/>
-      <c r="BB51" s="116"/>
-      <c r="BC51" s="64"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="104"/>
+      <c r="N51" s="104"/>
+      <c r="O51" s="104"/>
+      <c r="P51" s="106"/>
+      <c r="Q51" s="106"/>
+      <c r="R51" s="106"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="107"/>
+      <c r="U51" s="107"/>
+      <c r="V51" s="107"/>
+      <c r="W51" s="107"/>
+      <c r="X51" s="107"/>
+      <c r="Y51" s="107"/>
+      <c r="Z51" s="107"/>
+      <c r="AA51" s="107"/>
+      <c r="AB51" s="107"/>
+      <c r="AC51" s="107"/>
+      <c r="AD51" s="107"/>
+      <c r="AE51" s="107"/>
+      <c r="AF51" s="43"/>
+      <c r="AG51" s="109"/>
+      <c r="AH51" s="109"/>
+      <c r="AI51" s="44"/>
+      <c r="AJ51" s="110"/>
+      <c r="AK51" s="110"/>
+      <c r="AL51" s="110"/>
+      <c r="AM51" s="110"/>
+      <c r="AN51" s="110"/>
+      <c r="AO51" s="110"/>
+      <c r="AP51" s="110"/>
+      <c r="AQ51" s="110"/>
+      <c r="AR51" s="110"/>
+      <c r="AS51" s="110"/>
+      <c r="AT51" s="114"/>
+      <c r="AU51" s="114"/>
+      <c r="AV51" s="114"/>
+      <c r="AW51" s="114"/>
+      <c r="AX51" s="114"/>
+      <c r="AY51" s="114"/>
+      <c r="AZ51" s="114"/>
+      <c r="BA51" s="114"/>
+      <c r="BB51" s="114"/>
+      <c r="BC51" s="46"/>
       <c r="BF51" s="2"/>
       <c r="BG51" s="2"/>
       <c r="BN51" s="1"/>
       <c r="BO51" s="1"/>
     </row>
     <row r="52" spans="1:67" ht="25.5" customHeight="1">
-      <c r="A52" s="107"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="107"/>
-      <c r="N52" s="107"/>
-      <c r="O52" s="107"/>
-      <c r="P52" s="109"/>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="110"/>
-      <c r="U52" s="110"/>
-      <c r="V52" s="110"/>
-      <c r="W52" s="110"/>
-      <c r="X52" s="110"/>
-      <c r="Y52" s="110"/>
-      <c r="Z52" s="110"/>
-      <c r="AA52" s="110"/>
-      <c r="AB52" s="110"/>
-      <c r="AC52" s="110"/>
-      <c r="AD52" s="110"/>
-      <c r="AE52" s="110"/>
-      <c r="AF52" s="61"/>
-      <c r="AG52" s="111"/>
-      <c r="AH52" s="111"/>
-      <c r="AI52" s="62"/>
-      <c r="AJ52" s="117"/>
-      <c r="AK52" s="117"/>
-      <c r="AL52" s="117"/>
-      <c r="AM52" s="117"/>
-      <c r="AN52" s="117"/>
-      <c r="AO52" s="117"/>
-      <c r="AP52" s="117"/>
-      <c r="AQ52" s="117"/>
-      <c r="AR52" s="117"/>
-      <c r="AS52" s="117"/>
-      <c r="AT52" s="116"/>
-      <c r="AU52" s="116"/>
-      <c r="AV52" s="116"/>
-      <c r="AW52" s="116"/>
-      <c r="AX52" s="116"/>
-      <c r="AY52" s="116"/>
-      <c r="AZ52" s="116"/>
-      <c r="BA52" s="116"/>
-      <c r="BB52" s="116"/>
-      <c r="BC52" s="64"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="104"/>
+      <c r="O52" s="104"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="106"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="107"/>
+      <c r="U52" s="107"/>
+      <c r="V52" s="107"/>
+      <c r="W52" s="107"/>
+      <c r="X52" s="107"/>
+      <c r="Y52" s="107"/>
+      <c r="Z52" s="107"/>
+      <c r="AA52" s="107"/>
+      <c r="AB52" s="107"/>
+      <c r="AC52" s="107"/>
+      <c r="AD52" s="107"/>
+      <c r="AE52" s="107"/>
+      <c r="AF52" s="43"/>
+      <c r="AG52" s="109"/>
+      <c r="AH52" s="109"/>
+      <c r="AI52" s="44"/>
+      <c r="AJ52" s="115"/>
+      <c r="AK52" s="115"/>
+      <c r="AL52" s="115"/>
+      <c r="AM52" s="115"/>
+      <c r="AN52" s="115"/>
+      <c r="AO52" s="115"/>
+      <c r="AP52" s="115"/>
+      <c r="AQ52" s="115"/>
+      <c r="AR52" s="115"/>
+      <c r="AS52" s="115"/>
+      <c r="AT52" s="114"/>
+      <c r="AU52" s="114"/>
+      <c r="AV52" s="114"/>
+      <c r="AW52" s="114"/>
+      <c r="AX52" s="114"/>
+      <c r="AY52" s="114"/>
+      <c r="AZ52" s="114"/>
+      <c r="BA52" s="114"/>
+      <c r="BB52" s="114"/>
+      <c r="BC52" s="46"/>
       <c r="BF52" s="2"/>
       <c r="BG52" s="2"/>
       <c r="BN52" s="1"/>
       <c r="BO52" s="1"/>
     </row>
     <row r="53" spans="1:67">
-      <c r="A53" s="107"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="107"/>
-      <c r="N53" s="107"/>
-      <c r="O53" s="107"/>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="110"/>
-      <c r="U53" s="110"/>
-      <c r="V53" s="110"/>
-      <c r="W53" s="110"/>
-      <c r="X53" s="110"/>
-      <c r="Y53" s="110"/>
-      <c r="Z53" s="110"/>
-      <c r="AA53" s="110"/>
-      <c r="AB53" s="110"/>
-      <c r="AC53" s="110"/>
-      <c r="AD53" s="110"/>
-      <c r="AE53" s="110"/>
-      <c r="AF53" s="61"/>
-      <c r="AG53" s="111"/>
-      <c r="AH53" s="111"/>
-      <c r="AI53" s="62"/>
-      <c r="AJ53" s="112"/>
-      <c r="AK53" s="112"/>
-      <c r="AL53" s="112"/>
-      <c r="AM53" s="112"/>
-      <c r="AN53" s="112"/>
-      <c r="AO53" s="112"/>
-      <c r="AP53" s="112"/>
-      <c r="AQ53" s="112"/>
-      <c r="AR53" s="112"/>
-      <c r="AS53" s="112"/>
-      <c r="AT53" s="116"/>
-      <c r="AU53" s="116"/>
-      <c r="AV53" s="116"/>
-      <c r="AW53" s="116"/>
-      <c r="AX53" s="116"/>
-      <c r="AY53" s="116"/>
-      <c r="AZ53" s="116"/>
-      <c r="BA53" s="116"/>
-      <c r="BB53" s="116"/>
-      <c r="BC53" s="64"/>
+      <c r="A53" s="104"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="104"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="106"/>
+      <c r="R53" s="106"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="107"/>
+      <c r="U53" s="107"/>
+      <c r="V53" s="107"/>
+      <c r="W53" s="107"/>
+      <c r="X53" s="107"/>
+      <c r="Y53" s="107"/>
+      <c r="Z53" s="107"/>
+      <c r="AA53" s="107"/>
+      <c r="AB53" s="107"/>
+      <c r="AC53" s="107"/>
+      <c r="AD53" s="107"/>
+      <c r="AE53" s="107"/>
+      <c r="AF53" s="43"/>
+      <c r="AG53" s="109"/>
+      <c r="AH53" s="109"/>
+      <c r="AI53" s="44"/>
+      <c r="AJ53" s="110"/>
+      <c r="AK53" s="110"/>
+      <c r="AL53" s="110"/>
+      <c r="AM53" s="110"/>
+      <c r="AN53" s="110"/>
+      <c r="AO53" s="110"/>
+      <c r="AP53" s="110"/>
+      <c r="AQ53" s="110"/>
+      <c r="AR53" s="110"/>
+      <c r="AS53" s="110"/>
+      <c r="AT53" s="114"/>
+      <c r="AU53" s="114"/>
+      <c r="AV53" s="114"/>
+      <c r="AW53" s="114"/>
+      <c r="AX53" s="114"/>
+      <c r="AY53" s="114"/>
+      <c r="AZ53" s="114"/>
+      <c r="BA53" s="114"/>
+      <c r="BB53" s="114"/>
+      <c r="BC53" s="46"/>
     </row>
     <row r="54" spans="1:67">
-      <c r="A54" s="107"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
-      <c r="K54" s="108"/>
-      <c r="L54" s="108"/>
-      <c r="M54" s="107"/>
-      <c r="N54" s="107"/>
-      <c r="O54" s="107"/>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
+      <c r="A54" s="104"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="104"/>
+      <c r="N54" s="104"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="106"/>
       <c r="S54"/>
-      <c r="T54" s="110"/>
-      <c r="U54" s="110"/>
-      <c r="V54" s="110"/>
-      <c r="W54" s="110"/>
-      <c r="X54" s="110"/>
-      <c r="Y54" s="110"/>
-      <c r="Z54" s="110"/>
-      <c r="AA54" s="110"/>
-      <c r="AB54" s="110"/>
-      <c r="AC54" s="110"/>
-      <c r="AD54" s="110"/>
-      <c r="AE54" s="110"/>
-      <c r="AF54" s="61"/>
-      <c r="AG54" s="111"/>
-      <c r="AH54" s="111"/>
+      <c r="T54" s="107"/>
+      <c r="U54" s="107"/>
+      <c r="V54" s="107"/>
+      <c r="W54" s="107"/>
+      <c r="X54" s="107"/>
+      <c r="Y54" s="107"/>
+      <c r="Z54" s="107"/>
+      <c r="AA54" s="107"/>
+      <c r="AB54" s="107"/>
+      <c r="AC54" s="107"/>
+      <c r="AD54" s="107"/>
+      <c r="AE54" s="107"/>
+      <c r="AF54" s="43"/>
+      <c r="AG54" s="109"/>
+      <c r="AH54" s="109"/>
       <c r="AI54"/>
-      <c r="AJ54" s="112"/>
-      <c r="AK54" s="112"/>
-      <c r="AL54" s="112"/>
-      <c r="AM54" s="112"/>
-      <c r="AN54" s="112"/>
-      <c r="AO54" s="112"/>
-      <c r="AP54" s="112"/>
-      <c r="AQ54" s="112"/>
-      <c r="AR54" s="112"/>
-      <c r="AS54" s="112"/>
-      <c r="AT54" s="116"/>
-      <c r="AU54" s="116"/>
-      <c r="AV54" s="116"/>
-      <c r="AW54" s="116"/>
-      <c r="AX54" s="116"/>
-      <c r="AY54" s="116"/>
-      <c r="AZ54" s="116"/>
-      <c r="BA54" s="116"/>
-      <c r="BB54" s="116"/>
-      <c r="BC54" s="64"/>
+      <c r="AJ54" s="110"/>
+      <c r="AK54" s="110"/>
+      <c r="AL54" s="110"/>
+      <c r="AM54" s="110"/>
+      <c r="AN54" s="110"/>
+      <c r="AO54" s="110"/>
+      <c r="AP54" s="110"/>
+      <c r="AQ54" s="110"/>
+      <c r="AR54" s="110"/>
+      <c r="AS54" s="110"/>
+      <c r="AT54" s="114"/>
+      <c r="AU54" s="114"/>
+      <c r="AV54" s="114"/>
+      <c r="AW54" s="114"/>
+      <c r="AX54" s="114"/>
+      <c r="AY54" s="114"/>
+      <c r="AZ54" s="114"/>
+      <c r="BA54" s="114"/>
+      <c r="BB54" s="114"/>
+      <c r="BC54" s="46"/>
     </row>
     <row r="55" spans="1:67">
-      <c r="A55" s="107"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="108"/>
-      <c r="J55" s="108"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="108"/>
-      <c r="M55" s="107"/>
-      <c r="N55" s="107"/>
-      <c r="O55" s="107"/>
-      <c r="P55" s="109"/>
-      <c r="Q55" s="109"/>
-      <c r="R55" s="109"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="106"/>
+      <c r="Q55" s="106"/>
+      <c r="R55" s="106"/>
       <c r="S55"/>
-      <c r="T55" s="110"/>
-      <c r="U55" s="110"/>
-      <c r="V55" s="110"/>
-      <c r="W55" s="110"/>
-      <c r="X55" s="110"/>
-      <c r="Y55" s="110"/>
-      <c r="Z55" s="110"/>
-      <c r="AA55" s="110"/>
-      <c r="AB55" s="110"/>
-      <c r="AC55" s="110"/>
-      <c r="AD55" s="110"/>
-      <c r="AE55" s="110"/>
-      <c r="AF55" s="61"/>
-      <c r="AG55" s="111"/>
-      <c r="AH55" s="111"/>
+      <c r="T55" s="107"/>
+      <c r="U55" s="107"/>
+      <c r="V55" s="107"/>
+      <c r="W55" s="107"/>
+      <c r="X55" s="107"/>
+      <c r="Y55" s="107"/>
+      <c r="Z55" s="107"/>
+      <c r="AA55" s="107"/>
+      <c r="AB55" s="107"/>
+      <c r="AC55" s="107"/>
+      <c r="AD55" s="107"/>
+      <c r="AE55" s="107"/>
+      <c r="AF55" s="43"/>
+      <c r="AG55" s="109"/>
+      <c r="AH55" s="109"/>
       <c r="AI55"/>
-      <c r="AJ55" s="112"/>
-      <c r="AK55" s="112"/>
-      <c r="AL55" s="112"/>
-      <c r="AM55" s="112"/>
-      <c r="AN55" s="112"/>
-      <c r="AO55" s="112"/>
-      <c r="AP55" s="112"/>
-      <c r="AQ55" s="112"/>
-      <c r="AR55" s="112"/>
-      <c r="AS55" s="112"/>
-      <c r="AT55" s="116"/>
-      <c r="AU55" s="116"/>
-      <c r="AV55" s="116"/>
-      <c r="AW55" s="116"/>
-      <c r="AX55" s="116"/>
-      <c r="AY55" s="116"/>
-      <c r="AZ55" s="116"/>
-      <c r="BA55" s="116"/>
-      <c r="BB55" s="116"/>
-      <c r="BC55" s="64"/>
+      <c r="AJ55" s="110"/>
+      <c r="AK55" s="110"/>
+      <c r="AL55" s="110"/>
+      <c r="AM55" s="110"/>
+      <c r="AN55" s="110"/>
+      <c r="AO55" s="110"/>
+      <c r="AP55" s="110"/>
+      <c r="AQ55" s="110"/>
+      <c r="AR55" s="110"/>
+      <c r="AS55" s="110"/>
+      <c r="AT55" s="114"/>
+      <c r="AU55" s="114"/>
+      <c r="AV55" s="114"/>
+      <c r="AW55" s="114"/>
+      <c r="AX55" s="114"/>
+      <c r="AY55" s="114"/>
+      <c r="AZ55" s="114"/>
+      <c r="BA55" s="114"/>
+      <c r="BB55" s="114"/>
+      <c r="BC55" s="46"/>
     </row>
     <row r="56" spans="1:67">
-      <c r="A56" s="107"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="107"/>
-      <c r="N56" s="107"/>
-      <c r="O56" s="107"/>
-      <c r="P56" s="109"/>
-      <c r="Q56" s="109"/>
-      <c r="R56" s="109"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="106"/>
+      <c r="Q56" s="106"/>
+      <c r="R56" s="106"/>
       <c r="S56"/>
-      <c r="T56" s="110"/>
-      <c r="U56" s="110"/>
-      <c r="V56" s="110"/>
-      <c r="W56" s="110"/>
-      <c r="X56" s="110"/>
-      <c r="Y56" s="110"/>
-      <c r="Z56" s="110"/>
-      <c r="AA56" s="110"/>
-      <c r="AB56" s="110"/>
-      <c r="AC56" s="110"/>
-      <c r="AD56" s="110"/>
-      <c r="AE56" s="110"/>
-      <c r="AF56" s="61"/>
-      <c r="AG56" s="111"/>
-      <c r="AH56" s="111"/>
+      <c r="T56" s="107"/>
+      <c r="U56" s="107"/>
+      <c r="V56" s="107"/>
+      <c r="W56" s="107"/>
+      <c r="X56" s="107"/>
+      <c r="Y56" s="107"/>
+      <c r="Z56" s="107"/>
+      <c r="AA56" s="107"/>
+      <c r="AB56" s="107"/>
+      <c r="AC56" s="107"/>
+      <c r="AD56" s="107"/>
+      <c r="AE56" s="107"/>
+      <c r="AF56" s="43"/>
+      <c r="AG56" s="109"/>
+      <c r="AH56" s="109"/>
       <c r="AI56"/>
-      <c r="AJ56" s="112"/>
-      <c r="AK56" s="112"/>
-      <c r="AL56" s="112"/>
-      <c r="AM56" s="112"/>
-      <c r="AN56" s="112"/>
-      <c r="AO56" s="112"/>
-      <c r="AP56" s="112"/>
-      <c r="AQ56" s="112"/>
-      <c r="AR56" s="112"/>
-      <c r="AS56" s="112"/>
-      <c r="AT56" s="116"/>
-      <c r="AU56" s="116"/>
-      <c r="AV56" s="116"/>
-      <c r="AW56" s="116"/>
-      <c r="AX56" s="116"/>
-      <c r="AY56" s="116"/>
-      <c r="AZ56" s="116"/>
-      <c r="BA56" s="116"/>
-      <c r="BB56" s="116"/>
-      <c r="BC56" s="64"/>
+      <c r="AJ56" s="110"/>
+      <c r="AK56" s="110"/>
+      <c r="AL56" s="110"/>
+      <c r="AM56" s="110"/>
+      <c r="AN56" s="110"/>
+      <c r="AO56" s="110"/>
+      <c r="AP56" s="110"/>
+      <c r="AQ56" s="110"/>
+      <c r="AR56" s="110"/>
+      <c r="AS56" s="110"/>
+      <c r="AT56" s="114"/>
+      <c r="AU56" s="114"/>
+      <c r="AV56" s="114"/>
+      <c r="AW56" s="114"/>
+      <c r="AX56" s="114"/>
+      <c r="AY56" s="114"/>
+      <c r="AZ56" s="114"/>
+      <c r="BA56" s="114"/>
+      <c r="BB56" s="114"/>
+      <c r="BC56" s="46"/>
     </row>
     <row r="57" spans="1:67" ht="24" customHeight="1">
-      <c r="A57" s="107"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="108"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="107"/>
-      <c r="N57" s="107"/>
-      <c r="O57" s="107"/>
-      <c r="P57" s="109"/>
-      <c r="Q57" s="109"/>
-      <c r="R57" s="109"/>
+      <c r="A57" s="104"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="104"/>
+      <c r="N57" s="104"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="106"/>
+      <c r="Q57" s="106"/>
+      <c r="R57" s="106"/>
       <c r="S57"/>
-      <c r="T57" s="110"/>
-      <c r="U57" s="110"/>
-      <c r="V57" s="110"/>
-      <c r="W57" s="110"/>
-      <c r="X57" s="110"/>
-      <c r="Y57" s="110"/>
-      <c r="Z57" s="110"/>
-      <c r="AA57" s="110"/>
-      <c r="AB57" s="110"/>
-      <c r="AC57" s="110"/>
-      <c r="AD57" s="110"/>
-      <c r="AE57" s="110"/>
-      <c r="AF57" s="61"/>
-      <c r="AG57" s="111"/>
-      <c r="AH57" s="111"/>
+      <c r="T57" s="107"/>
+      <c r="U57" s="107"/>
+      <c r="V57" s="107"/>
+      <c r="W57" s="107"/>
+      <c r="X57" s="107"/>
+      <c r="Y57" s="107"/>
+      <c r="Z57" s="107"/>
+      <c r="AA57" s="107"/>
+      <c r="AB57" s="107"/>
+      <c r="AC57" s="107"/>
+      <c r="AD57" s="107"/>
+      <c r="AE57" s="107"/>
+      <c r="AF57" s="43"/>
+      <c r="AG57" s="109"/>
+      <c r="AH57" s="109"/>
       <c r="AI57"/>
-      <c r="AJ57" s="117"/>
-      <c r="AK57" s="117"/>
-      <c r="AL57" s="117"/>
-      <c r="AM57" s="117"/>
-      <c r="AN57" s="117"/>
-      <c r="AO57" s="117"/>
-      <c r="AP57" s="117"/>
-      <c r="AQ57" s="117"/>
-      <c r="AR57" s="117"/>
-      <c r="AS57" s="117"/>
-      <c r="AT57" s="116"/>
-      <c r="AU57" s="116"/>
-      <c r="AV57" s="116"/>
-      <c r="AW57" s="116"/>
-      <c r="AX57" s="116"/>
-      <c r="AY57" s="116"/>
-      <c r="AZ57" s="116"/>
-      <c r="BA57" s="116"/>
-      <c r="BB57" s="116"/>
-      <c r="BC57" s="64"/>
+      <c r="AJ57" s="115"/>
+      <c r="AK57" s="115"/>
+      <c r="AL57" s="115"/>
+      <c r="AM57" s="115"/>
+      <c r="AN57" s="115"/>
+      <c r="AO57" s="115"/>
+      <c r="AP57" s="115"/>
+      <c r="AQ57" s="115"/>
+      <c r="AR57" s="115"/>
+      <c r="AS57" s="115"/>
+      <c r="AT57" s="114"/>
+      <c r="AU57" s="114"/>
+      <c r="AV57" s="114"/>
+      <c r="AW57" s="114"/>
+      <c r="AX57" s="114"/>
+      <c r="AY57" s="114"/>
+      <c r="AZ57" s="114"/>
+      <c r="BA57" s="114"/>
+      <c r="BB57" s="114"/>
+      <c r="BC57" s="46"/>
     </row>
     <row r="58" spans="1:67">
-      <c r="A58" s="107"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="108"/>
-      <c r="K58" s="108"/>
-      <c r="L58" s="108"/>
-      <c r="M58" s="107"/>
-      <c r="N58" s="107"/>
-      <c r="O58" s="107"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="109"/>
-      <c r="R58" s="109"/>
+      <c r="A58" s="104"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="104"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="106"/>
+      <c r="Q58" s="106"/>
+      <c r="R58" s="106"/>
       <c r="S58"/>
-      <c r="T58" s="110"/>
-      <c r="U58" s="110"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
-      <c r="X58" s="110"/>
-      <c r="Y58" s="110"/>
-      <c r="Z58" s="110"/>
-      <c r="AA58" s="110"/>
-      <c r="AB58" s="110"/>
-      <c r="AC58" s="110"/>
-      <c r="AD58" s="110"/>
-      <c r="AE58" s="110"/>
-      <c r="AF58" s="61"/>
-      <c r="AG58" s="111"/>
-      <c r="AH58" s="111"/>
+      <c r="T58" s="107"/>
+      <c r="U58" s="107"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
+      <c r="X58" s="107"/>
+      <c r="Y58" s="107"/>
+      <c r="Z58" s="107"/>
+      <c r="AA58" s="107"/>
+      <c r="AB58" s="107"/>
+      <c r="AC58" s="107"/>
+      <c r="AD58" s="107"/>
+      <c r="AE58" s="107"/>
+      <c r="AF58" s="43"/>
+      <c r="AG58" s="109"/>
+      <c r="AH58" s="109"/>
       <c r="AI58"/>
-      <c r="AJ58" s="112"/>
-      <c r="AK58" s="112"/>
-      <c r="AL58" s="112"/>
-      <c r="AM58" s="112"/>
-      <c r="AN58" s="112"/>
-      <c r="AO58" s="112"/>
-      <c r="AP58" s="112"/>
-      <c r="AQ58" s="112"/>
-      <c r="AR58" s="112"/>
-      <c r="AS58" s="112"/>
-      <c r="AT58" s="116"/>
-      <c r="AU58" s="116"/>
-      <c r="AV58" s="116"/>
-      <c r="AW58" s="116"/>
-      <c r="AX58" s="116"/>
-      <c r="AY58" s="116"/>
-      <c r="AZ58" s="116"/>
-      <c r="BA58" s="116"/>
-      <c r="BB58" s="116"/>
-      <c r="BC58" s="64"/>
+      <c r="AJ58" s="110"/>
+      <c r="AK58" s="110"/>
+      <c r="AL58" s="110"/>
+      <c r="AM58" s="110"/>
+      <c r="AN58" s="110"/>
+      <c r="AO58" s="110"/>
+      <c r="AP58" s="110"/>
+      <c r="AQ58" s="110"/>
+      <c r="AR58" s="110"/>
+      <c r="AS58" s="110"/>
+      <c r="AT58" s="114"/>
+      <c r="AU58" s="114"/>
+      <c r="AV58" s="114"/>
+      <c r="AW58" s="114"/>
+      <c r="AX58" s="114"/>
+      <c r="AY58" s="114"/>
+      <c r="AZ58" s="114"/>
+      <c r="BA58" s="114"/>
+      <c r="BB58" s="114"/>
+      <c r="BC58" s="46"/>
     </row>
     <row r="59" spans="1:67" ht="14.75" customHeight="1">
-      <c r="A59" s="115"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
-      <c r="K59" s="111"/>
-      <c r="L59" s="111"/>
-      <c r="M59" s="109"/>
-      <c r="N59" s="109"/>
-      <c r="O59" s="109"/>
-      <c r="P59" s="109"/>
-      <c r="Q59" s="109"/>
-      <c r="R59" s="109"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
+      <c r="L59" s="109"/>
+      <c r="M59" s="106"/>
+      <c r="N59" s="106"/>
+      <c r="O59" s="106"/>
+      <c r="P59" s="106"/>
+      <c r="Q59" s="106"/>
+      <c r="R59" s="106"/>
       <c r="S59"/>
-      <c r="T59" s="110"/>
-      <c r="U59" s="110"/>
-      <c r="V59" s="110"/>
-      <c r="W59" s="110"/>
-      <c r="X59" s="110"/>
-      <c r="Y59" s="110"/>
-      <c r="Z59" s="110"/>
-      <c r="AA59" s="110"/>
-      <c r="AB59" s="110"/>
-      <c r="AC59" s="110"/>
-      <c r="AD59" s="110"/>
-      <c r="AE59" s="110"/>
-      <c r="AF59" s="61"/>
-      <c r="AG59" s="111"/>
-      <c r="AH59" s="111"/>
+      <c r="T59" s="107"/>
+      <c r="U59" s="107"/>
+      <c r="V59" s="107"/>
+      <c r="W59" s="107"/>
+      <c r="X59" s="107"/>
+      <c r="Y59" s="107"/>
+      <c r="Z59" s="107"/>
+      <c r="AA59" s="107"/>
+      <c r="AB59" s="107"/>
+      <c r="AC59" s="107"/>
+      <c r="AD59" s="107"/>
+      <c r="AE59" s="107"/>
+      <c r="AF59" s="43"/>
+      <c r="AG59" s="109"/>
+      <c r="AH59" s="109"/>
       <c r="AI59"/>
-      <c r="AJ59" s="112"/>
-      <c r="AK59" s="112"/>
-      <c r="AL59" s="112"/>
-      <c r="AM59" s="112"/>
-      <c r="AN59" s="112"/>
-      <c r="AO59" s="112"/>
-      <c r="AP59" s="112"/>
-      <c r="AQ59" s="112"/>
-      <c r="AR59" s="112"/>
-      <c r="AS59" s="112"/>
-      <c r="AT59" s="116"/>
-      <c r="AU59" s="116"/>
-      <c r="AV59" s="116"/>
-      <c r="AW59" s="116"/>
-      <c r="AX59" s="116"/>
-      <c r="AY59" s="116"/>
-      <c r="AZ59" s="116"/>
-      <c r="BA59" s="116"/>
-      <c r="BB59" s="116"/>
-      <c r="BC59" s="64"/>
+      <c r="AJ59" s="110"/>
+      <c r="AK59" s="110"/>
+      <c r="AL59" s="110"/>
+      <c r="AM59" s="110"/>
+      <c r="AN59" s="110"/>
+      <c r="AO59" s="110"/>
+      <c r="AP59" s="110"/>
+      <c r="AQ59" s="110"/>
+      <c r="AR59" s="110"/>
+      <c r="AS59" s="110"/>
+      <c r="AT59" s="114"/>
+      <c r="AU59" s="114"/>
+      <c r="AV59" s="114"/>
+      <c r="AW59" s="114"/>
+      <c r="AX59" s="114"/>
+      <c r="AY59" s="114"/>
+      <c r="AZ59" s="114"/>
+      <c r="BA59" s="114"/>
+      <c r="BB59" s="114"/>
+      <c r="BC59" s="46"/>
     </row>
     <row r="60" spans="1:67">
-      <c r="A60" s="118"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="108"/>
-      <c r="K60" s="108"/>
-      <c r="L60" s="108"/>
-      <c r="M60" s="107"/>
-      <c r="N60" s="107"/>
-      <c r="O60" s="107"/>
-      <c r="P60" s="109"/>
-      <c r="Q60" s="109"/>
-      <c r="R60" s="109"/>
+      <c r="A60" s="116"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="104"/>
+      <c r="N60" s="104"/>
+      <c r="O60" s="104"/>
+      <c r="P60" s="106"/>
+      <c r="Q60" s="106"/>
+      <c r="R60" s="106"/>
       <c r="S60"/>
-      <c r="T60" s="110"/>
-      <c r="U60" s="110"/>
-      <c r="V60" s="110"/>
-      <c r="W60" s="110"/>
-      <c r="X60" s="110"/>
-      <c r="Y60" s="110"/>
-      <c r="Z60" s="110"/>
-      <c r="AA60" s="110"/>
-      <c r="AB60" s="110"/>
-      <c r="AC60" s="110"/>
-      <c r="AD60" s="110"/>
-      <c r="AE60" s="110"/>
-      <c r="AF60" s="61"/>
-      <c r="AG60" s="111"/>
-      <c r="AH60" s="111"/>
+      <c r="T60" s="107"/>
+      <c r="U60" s="107"/>
+      <c r="V60" s="107"/>
+      <c r="W60" s="107"/>
+      <c r="X60" s="107"/>
+      <c r="Y60" s="107"/>
+      <c r="Z60" s="107"/>
+      <c r="AA60" s="107"/>
+      <c r="AB60" s="107"/>
+      <c r="AC60" s="107"/>
+      <c r="AD60" s="107"/>
+      <c r="AE60" s="107"/>
+      <c r="AF60" s="43"/>
+      <c r="AG60" s="109"/>
+      <c r="AH60" s="109"/>
       <c r="AI60"/>
-      <c r="AJ60" s="112"/>
-      <c r="AK60" s="112"/>
-      <c r="AL60" s="112"/>
-      <c r="AM60" s="112"/>
-      <c r="AN60" s="112"/>
-      <c r="AO60" s="112"/>
-      <c r="AP60" s="112"/>
-      <c r="AQ60" s="112"/>
-      <c r="AR60" s="112"/>
-      <c r="AS60" s="112"/>
-      <c r="AT60" s="116"/>
-      <c r="AU60" s="116"/>
-      <c r="AV60" s="116"/>
-      <c r="AW60" s="116"/>
-      <c r="AX60" s="116"/>
-      <c r="AY60" s="116"/>
-      <c r="AZ60" s="116"/>
-      <c r="BA60" s="116"/>
-      <c r="BB60" s="116"/>
-      <c r="BC60" s="64"/>
+      <c r="AJ60" s="110"/>
+      <c r="AK60" s="110"/>
+      <c r="AL60" s="110"/>
+      <c r="AM60" s="110"/>
+      <c r="AN60" s="110"/>
+      <c r="AO60" s="110"/>
+      <c r="AP60" s="110"/>
+      <c r="AQ60" s="110"/>
+      <c r="AR60" s="110"/>
+      <c r="AS60" s="110"/>
+      <c r="AT60" s="114"/>
+      <c r="AU60" s="114"/>
+      <c r="AV60" s="114"/>
+      <c r="AW60" s="114"/>
+      <c r="AX60" s="114"/>
+      <c r="AY60" s="114"/>
+      <c r="AZ60" s="114"/>
+      <c r="BA60" s="114"/>
+      <c r="BB60" s="114"/>
+      <c r="BC60" s="46"/>
     </row>
     <row r="61" spans="1:67">
-      <c r="A61" s="118"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="108"/>
-      <c r="J61" s="108"/>
-      <c r="K61" s="108"/>
-      <c r="L61" s="108"/>
-      <c r="M61" s="107"/>
-      <c r="N61" s="107"/>
-      <c r="O61" s="107"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="109"/>
-      <c r="R61" s="109"/>
+      <c r="A61" s="116"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="105"/>
+      <c r="L61" s="105"/>
+      <c r="M61" s="104"/>
+      <c r="N61" s="104"/>
+      <c r="O61" s="104"/>
+      <c r="P61" s="106"/>
+      <c r="Q61" s="106"/>
+      <c r="R61" s="106"/>
       <c r="S61"/>
-      <c r="T61" s="110"/>
-      <c r="U61" s="110"/>
-      <c r="V61" s="110"/>
-      <c r="W61" s="110"/>
-      <c r="X61" s="110"/>
-      <c r="Y61" s="110"/>
-      <c r="Z61" s="110"/>
-      <c r="AA61" s="110"/>
-      <c r="AB61" s="110"/>
-      <c r="AC61" s="110"/>
-      <c r="AD61" s="110"/>
-      <c r="AE61" s="110"/>
-      <c r="AF61" s="61"/>
-      <c r="AG61" s="111"/>
-      <c r="AH61" s="111"/>
+      <c r="T61" s="107"/>
+      <c r="U61" s="107"/>
+      <c r="V61" s="107"/>
+      <c r="W61" s="107"/>
+      <c r="X61" s="107"/>
+      <c r="Y61" s="107"/>
+      <c r="Z61" s="107"/>
+      <c r="AA61" s="107"/>
+      <c r="AB61" s="107"/>
+      <c r="AC61" s="107"/>
+      <c r="AD61" s="107"/>
+      <c r="AE61" s="107"/>
+      <c r="AF61" s="43"/>
+      <c r="AG61" s="109"/>
+      <c r="AH61" s="109"/>
       <c r="AI61"/>
-      <c r="AJ61" s="112"/>
-      <c r="AK61" s="112"/>
-      <c r="AL61" s="112"/>
-      <c r="AM61" s="112"/>
-      <c r="AN61" s="112"/>
-      <c r="AO61" s="112"/>
-      <c r="AP61" s="112"/>
-      <c r="AQ61" s="112"/>
-      <c r="AR61" s="112"/>
-      <c r="AS61" s="112"/>
-      <c r="AT61" s="116"/>
-      <c r="AU61" s="116"/>
-      <c r="AV61" s="116"/>
-      <c r="AW61" s="116"/>
-      <c r="AX61" s="116"/>
-      <c r="AY61" s="116"/>
-      <c r="AZ61" s="116"/>
-      <c r="BA61" s="116"/>
-      <c r="BB61" s="116"/>
-      <c r="BC61" s="64"/>
+      <c r="AJ61" s="110"/>
+      <c r="AK61" s="110"/>
+      <c r="AL61" s="110"/>
+      <c r="AM61" s="110"/>
+      <c r="AN61" s="110"/>
+      <c r="AO61" s="110"/>
+      <c r="AP61" s="110"/>
+      <c r="AQ61" s="110"/>
+      <c r="AR61" s="110"/>
+      <c r="AS61" s="110"/>
+      <c r="AT61" s="114"/>
+      <c r="AU61" s="114"/>
+      <c r="AV61" s="114"/>
+      <c r="AW61" s="114"/>
+      <c r="AX61" s="114"/>
+      <c r="AY61" s="114"/>
+      <c r="AZ61" s="114"/>
+      <c r="BA61" s="114"/>
+      <c r="BB61" s="114"/>
+      <c r="BC61" s="46"/>
     </row>
     <row r="62" spans="1:67" ht="14.75" customHeight="1">
-      <c r="A62" s="118"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="108"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="108"/>
-      <c r="J62" s="108"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="108"/>
-      <c r="M62" s="107"/>
-      <c r="N62" s="107"/>
-      <c r="O62" s="107"/>
-      <c r="P62" s="109"/>
-      <c r="Q62" s="109"/>
-      <c r="R62" s="109"/>
+      <c r="A62" s="116"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
+      <c r="K62" s="105"/>
+      <c r="L62" s="105"/>
+      <c r="M62" s="104"/>
+      <c r="N62" s="104"/>
+      <c r="O62" s="104"/>
+      <c r="P62" s="106"/>
+      <c r="Q62" s="106"/>
+      <c r="R62" s="106"/>
       <c r="S62"/>
-      <c r="T62" s="110"/>
-      <c r="U62" s="110"/>
-      <c r="V62" s="110"/>
-      <c r="W62" s="110"/>
-      <c r="X62" s="110"/>
-      <c r="Y62" s="110"/>
-      <c r="Z62" s="110"/>
-      <c r="AA62" s="110"/>
-      <c r="AB62" s="110"/>
-      <c r="AC62" s="110"/>
-      <c r="AD62" s="110"/>
-      <c r="AE62" s="110"/>
-      <c r="AF62" s="61"/>
-      <c r="AG62" s="111"/>
-      <c r="AH62" s="111"/>
+      <c r="T62" s="107"/>
+      <c r="U62" s="107"/>
+      <c r="V62" s="107"/>
+      <c r="W62" s="107"/>
+      <c r="X62" s="107"/>
+      <c r="Y62" s="107"/>
+      <c r="Z62" s="107"/>
+      <c r="AA62" s="107"/>
+      <c r="AB62" s="107"/>
+      <c r="AC62" s="107"/>
+      <c r="AD62" s="107"/>
+      <c r="AE62" s="107"/>
+      <c r="AF62" s="43"/>
+      <c r="AG62" s="109"/>
+      <c r="AH62" s="109"/>
       <c r="AI62"/>
-      <c r="AJ62" s="117"/>
-      <c r="AK62" s="117"/>
-      <c r="AL62" s="117"/>
-      <c r="AM62" s="117"/>
-      <c r="AN62" s="117"/>
-      <c r="AO62" s="117"/>
-      <c r="AP62" s="117"/>
-      <c r="AQ62" s="117"/>
-      <c r="AR62" s="117"/>
-      <c r="AS62" s="117"/>
-      <c r="AT62" s="116"/>
-      <c r="AU62" s="116"/>
-      <c r="AV62" s="116"/>
-      <c r="AW62" s="116"/>
-      <c r="AX62" s="116"/>
-      <c r="AY62" s="116"/>
-      <c r="AZ62" s="116"/>
-      <c r="BA62" s="116"/>
-      <c r="BB62" s="116"/>
-      <c r="BC62" s="64"/>
+      <c r="AJ62" s="115"/>
+      <c r="AK62" s="115"/>
+      <c r="AL62" s="115"/>
+      <c r="AM62" s="115"/>
+      <c r="AN62" s="115"/>
+      <c r="AO62" s="115"/>
+      <c r="AP62" s="115"/>
+      <c r="AQ62" s="115"/>
+      <c r="AR62" s="115"/>
+      <c r="AS62" s="115"/>
+      <c r="AT62" s="114"/>
+      <c r="AU62" s="114"/>
+      <c r="AV62" s="114"/>
+      <c r="AW62" s="114"/>
+      <c r="AX62" s="114"/>
+      <c r="AY62" s="114"/>
+      <c r="AZ62" s="114"/>
+      <c r="BA62" s="114"/>
+      <c r="BB62" s="114"/>
+      <c r="BC62" s="46"/>
     </row>
     <row r="63" spans="1:67">
-      <c r="A63" s="118"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="108"/>
-      <c r="H63" s="108"/>
-      <c r="I63" s="108"/>
-      <c r="J63" s="108"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="108"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="107"/>
-      <c r="P63" s="109"/>
-      <c r="Q63" s="109"/>
-      <c r="R63" s="109"/>
+      <c r="A63" s="116"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="105"/>
+      <c r="K63" s="105"/>
+      <c r="L63" s="105"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="106"/>
+      <c r="Q63" s="106"/>
+      <c r="R63" s="106"/>
       <c r="S63"/>
       <c r="T63"/>
       <c r="U63"/>
@@ -5235,46 +5209,46 @@
       <c r="AG63"/>
       <c r="AH63"/>
       <c r="AI63"/>
-      <c r="AJ63" s="112"/>
-      <c r="AK63" s="112"/>
-      <c r="AL63" s="112"/>
-      <c r="AM63" s="112"/>
-      <c r="AN63" s="112"/>
-      <c r="AO63" s="112"/>
-      <c r="AP63" s="112"/>
-      <c r="AQ63" s="112"/>
-      <c r="AR63" s="112"/>
-      <c r="AS63" s="112"/>
-      <c r="AT63" s="116"/>
-      <c r="AU63" s="116"/>
-      <c r="AV63" s="116"/>
-      <c r="AW63" s="116"/>
-      <c r="AX63" s="116"/>
-      <c r="AY63" s="116"/>
-      <c r="AZ63" s="116"/>
-      <c r="BA63" s="116"/>
-      <c r="BB63" s="116"/>
-      <c r="BC63" s="64"/>
+      <c r="AJ63" s="110"/>
+      <c r="AK63" s="110"/>
+      <c r="AL63" s="110"/>
+      <c r="AM63" s="110"/>
+      <c r="AN63" s="110"/>
+      <c r="AO63" s="110"/>
+      <c r="AP63" s="110"/>
+      <c r="AQ63" s="110"/>
+      <c r="AR63" s="110"/>
+      <c r="AS63" s="110"/>
+      <c r="AT63" s="114"/>
+      <c r="AU63" s="114"/>
+      <c r="AV63" s="114"/>
+      <c r="AW63" s="114"/>
+      <c r="AX63" s="114"/>
+      <c r="AY63" s="114"/>
+      <c r="AZ63" s="114"/>
+      <c r="BA63" s="114"/>
+      <c r="BB63" s="114"/>
+      <c r="BC63" s="46"/>
     </row>
     <row r="64" spans="1:67" ht="14.75" customHeight="1">
-      <c r="A64" s="115"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="111"/>
-      <c r="F64" s="111"/>
-      <c r="G64" s="111"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="111"/>
-      <c r="J64" s="111"/>
-      <c r="K64" s="111"/>
-      <c r="L64" s="111"/>
-      <c r="M64" s="109"/>
-      <c r="N64" s="109"/>
-      <c r="O64" s="109"/>
-      <c r="P64" s="109"/>
-      <c r="Q64" s="109"/>
-      <c r="R64" s="109"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="109"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="106"/>
+      <c r="N64" s="106"/>
+      <c r="O64" s="106"/>
+      <c r="P64" s="106"/>
+      <c r="Q64" s="106"/>
+      <c r="R64" s="106"/>
       <c r="S64"/>
       <c r="T64"/>
       <c r="U64"/>
@@ -5292,26 +5266,26 @@
       <c r="AG64"/>
       <c r="AH64"/>
       <c r="AI64"/>
-      <c r="AJ64" s="112"/>
-      <c r="AK64" s="112"/>
-      <c r="AL64" s="112"/>
-      <c r="AM64" s="112"/>
-      <c r="AN64" s="112"/>
-      <c r="AO64" s="112"/>
-      <c r="AP64" s="112"/>
-      <c r="AQ64" s="112"/>
-      <c r="AR64" s="112"/>
-      <c r="AS64" s="112"/>
-      <c r="AT64" s="116"/>
-      <c r="AU64" s="116"/>
-      <c r="AV64" s="116"/>
-      <c r="AW64" s="116"/>
-      <c r="AX64" s="116"/>
-      <c r="AY64" s="116"/>
-      <c r="AZ64" s="116"/>
-      <c r="BA64" s="116"/>
-      <c r="BB64" s="116"/>
-      <c r="BC64" s="64"/>
+      <c r="AJ64" s="110"/>
+      <c r="AK64" s="110"/>
+      <c r="AL64" s="110"/>
+      <c r="AM64" s="110"/>
+      <c r="AN64" s="110"/>
+      <c r="AO64" s="110"/>
+      <c r="AP64" s="110"/>
+      <c r="AQ64" s="110"/>
+      <c r="AR64" s="110"/>
+      <c r="AS64" s="110"/>
+      <c r="AT64" s="114"/>
+      <c r="AU64" s="114"/>
+      <c r="AV64" s="114"/>
+      <c r="AW64" s="114"/>
+      <c r="AX64" s="114"/>
+      <c r="AY64" s="114"/>
+      <c r="AZ64" s="114"/>
+      <c r="BA64" s="114"/>
+      <c r="BB64" s="114"/>
+      <c r="BC64" s="46"/>
     </row>
     <row r="65" spans="1:55">
       <c r="A65"/>
@@ -5349,29 +5323,29 @@
       <c r="AG65"/>
       <c r="AH65"/>
       <c r="AI65"/>
-      <c r="AJ65" s="112"/>
-      <c r="AK65" s="112"/>
-      <c r="AL65" s="112"/>
-      <c r="AM65" s="112"/>
-      <c r="AN65" s="112"/>
-      <c r="AO65" s="112"/>
-      <c r="AP65" s="112"/>
-      <c r="AQ65" s="112"/>
-      <c r="AR65" s="112"/>
-      <c r="AS65" s="112"/>
-      <c r="AT65" s="116"/>
-      <c r="AU65" s="116"/>
-      <c r="AV65" s="116"/>
-      <c r="AW65" s="116"/>
-      <c r="AX65" s="116"/>
-      <c r="AY65" s="116"/>
-      <c r="AZ65" s="116"/>
-      <c r="BA65" s="116"/>
-      <c r="BB65" s="116"/>
-      <c r="BC65" s="64"/>
+      <c r="AJ65" s="110"/>
+      <c r="AK65" s="110"/>
+      <c r="AL65" s="110"/>
+      <c r="AM65" s="110"/>
+      <c r="AN65" s="110"/>
+      <c r="AO65" s="110"/>
+      <c r="AP65" s="110"/>
+      <c r="AQ65" s="110"/>
+      <c r="AR65" s="110"/>
+      <c r="AS65" s="110"/>
+      <c r="AT65" s="114"/>
+      <c r="AU65" s="114"/>
+      <c r="AV65" s="114"/>
+      <c r="AW65" s="114"/>
+      <c r="AX65" s="114"/>
+      <c r="AY65" s="114"/>
+      <c r="AZ65" s="114"/>
+      <c r="BA65" s="114"/>
+      <c r="BB65" s="114"/>
+      <c r="BC65" s="46"/>
     </row>
     <row r="66" spans="1:55" ht="17" customHeight="1">
-      <c r="A66" s="65"/>
+      <c r="A66" s="47"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -5406,29 +5380,29 @@
       <c r="AG66"/>
       <c r="AH66"/>
       <c r="AI66"/>
-      <c r="AJ66" s="117"/>
-      <c r="AK66" s="117"/>
-      <c r="AL66" s="117"/>
-      <c r="AM66" s="117"/>
-      <c r="AN66" s="117"/>
-      <c r="AO66" s="117"/>
-      <c r="AP66" s="117"/>
-      <c r="AQ66" s="117"/>
-      <c r="AR66" s="117"/>
-      <c r="AS66" s="117"/>
-      <c r="AT66" s="116"/>
-      <c r="AU66" s="116"/>
-      <c r="AV66" s="116"/>
-      <c r="AW66" s="116"/>
-      <c r="AX66" s="116"/>
-      <c r="AY66" s="116"/>
-      <c r="AZ66" s="116"/>
-      <c r="BA66" s="116"/>
-      <c r="BB66" s="116"/>
-      <c r="BC66" s="64"/>
+      <c r="AJ66" s="115"/>
+      <c r="AK66" s="115"/>
+      <c r="AL66" s="115"/>
+      <c r="AM66" s="115"/>
+      <c r="AN66" s="115"/>
+      <c r="AO66" s="115"/>
+      <c r="AP66" s="115"/>
+      <c r="AQ66" s="115"/>
+      <c r="AR66" s="115"/>
+      <c r="AS66" s="115"/>
+      <c r="AT66" s="114"/>
+      <c r="AU66" s="114"/>
+      <c r="AV66" s="114"/>
+      <c r="AW66" s="114"/>
+      <c r="AX66" s="114"/>
+      <c r="AY66" s="114"/>
+      <c r="AZ66" s="114"/>
+      <c r="BA66" s="114"/>
+      <c r="BB66" s="114"/>
+      <c r="BC66" s="46"/>
     </row>
     <row r="67" spans="1:55" ht="16">
-      <c r="A67" s="66"/>
+      <c r="A67" s="48"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -5463,29 +5437,29 @@
       <c r="AG67"/>
       <c r="AH67"/>
       <c r="AI67"/>
-      <c r="AJ67" s="112"/>
-      <c r="AK67" s="112"/>
-      <c r="AL67" s="112"/>
-      <c r="AM67" s="112"/>
-      <c r="AN67" s="112"/>
-      <c r="AO67" s="112"/>
-      <c r="AP67" s="112"/>
-      <c r="AQ67" s="112"/>
-      <c r="AR67" s="112"/>
-      <c r="AS67" s="112"/>
-      <c r="AT67" s="116"/>
-      <c r="AU67" s="116"/>
-      <c r="AV67" s="116"/>
-      <c r="AW67" s="116"/>
-      <c r="AX67" s="116"/>
-      <c r="AY67" s="116"/>
-      <c r="AZ67" s="116"/>
-      <c r="BA67" s="116"/>
-      <c r="BB67" s="116"/>
-      <c r="BC67" s="64"/>
+      <c r="AJ67" s="110"/>
+      <c r="AK67" s="110"/>
+      <c r="AL67" s="110"/>
+      <c r="AM67" s="110"/>
+      <c r="AN67" s="110"/>
+      <c r="AO67" s="110"/>
+      <c r="AP67" s="110"/>
+      <c r="AQ67" s="110"/>
+      <c r="AR67" s="110"/>
+      <c r="AS67" s="110"/>
+      <c r="AT67" s="114"/>
+      <c r="AU67" s="114"/>
+      <c r="AV67" s="114"/>
+      <c r="AW67" s="114"/>
+      <c r="AX67" s="114"/>
+      <c r="AY67" s="114"/>
+      <c r="AZ67" s="114"/>
+      <c r="BA67" s="114"/>
+      <c r="BB67" s="114"/>
+      <c r="BC67" s="46"/>
     </row>
     <row r="68" spans="1:55" ht="16">
-      <c r="A68" s="66"/>
+      <c r="A68" s="48"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -5520,29 +5494,29 @@
       <c r="AG68"/>
       <c r="AH68"/>
       <c r="AI68"/>
-      <c r="AJ68" s="112"/>
-      <c r="AK68" s="112"/>
-      <c r="AL68" s="112"/>
-      <c r="AM68" s="112"/>
-      <c r="AN68" s="112"/>
-      <c r="AO68" s="112"/>
-      <c r="AP68" s="112"/>
-      <c r="AQ68" s="112"/>
-      <c r="AR68" s="112"/>
-      <c r="AS68" s="112"/>
-      <c r="AT68" s="116"/>
-      <c r="AU68" s="116"/>
-      <c r="AV68" s="116"/>
-      <c r="AW68" s="116"/>
-      <c r="AX68" s="116"/>
-      <c r="AY68" s="116"/>
-      <c r="AZ68" s="116"/>
-      <c r="BA68" s="116"/>
-      <c r="BB68" s="116"/>
-      <c r="BC68" s="64"/>
+      <c r="AJ68" s="110"/>
+      <c r="AK68" s="110"/>
+      <c r="AL68" s="110"/>
+      <c r="AM68" s="110"/>
+      <c r="AN68" s="110"/>
+      <c r="AO68" s="110"/>
+      <c r="AP68" s="110"/>
+      <c r="AQ68" s="110"/>
+      <c r="AR68" s="110"/>
+      <c r="AS68" s="110"/>
+      <c r="AT68" s="114"/>
+      <c r="AU68" s="114"/>
+      <c r="AV68" s="114"/>
+      <c r="AW68" s="114"/>
+      <c r="AX68" s="114"/>
+      <c r="AY68" s="114"/>
+      <c r="AZ68" s="114"/>
+      <c r="BA68" s="114"/>
+      <c r="BB68" s="114"/>
+      <c r="BC68" s="46"/>
     </row>
     <row r="69" spans="1:55" ht="16">
-      <c r="A69" s="66"/>
+      <c r="A69" s="48"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -5577,29 +5551,29 @@
       <c r="AG69"/>
       <c r="AH69"/>
       <c r="AI69"/>
-      <c r="AJ69" s="112"/>
-      <c r="AK69" s="112"/>
-      <c r="AL69" s="112"/>
-      <c r="AM69" s="112"/>
-      <c r="AN69" s="112"/>
-      <c r="AO69" s="112"/>
-      <c r="AP69" s="112"/>
-      <c r="AQ69" s="112"/>
-      <c r="AR69" s="112"/>
-      <c r="AS69" s="112"/>
-      <c r="AT69" s="116"/>
-      <c r="AU69" s="116"/>
-      <c r="AV69" s="116"/>
-      <c r="AW69" s="116"/>
-      <c r="AX69" s="116"/>
-      <c r="AY69" s="116"/>
-      <c r="AZ69" s="116"/>
-      <c r="BA69" s="116"/>
-      <c r="BB69" s="116"/>
-      <c r="BC69" s="64"/>
+      <c r="AJ69" s="110"/>
+      <c r="AK69" s="110"/>
+      <c r="AL69" s="110"/>
+      <c r="AM69" s="110"/>
+      <c r="AN69" s="110"/>
+      <c r="AO69" s="110"/>
+      <c r="AP69" s="110"/>
+      <c r="AQ69" s="110"/>
+      <c r="AR69" s="110"/>
+      <c r="AS69" s="110"/>
+      <c r="AT69" s="114"/>
+      <c r="AU69" s="114"/>
+      <c r="AV69" s="114"/>
+      <c r="AW69" s="114"/>
+      <c r="AX69" s="114"/>
+      <c r="AY69" s="114"/>
+      <c r="AZ69" s="114"/>
+      <c r="BA69" s="114"/>
+      <c r="BB69" s="114"/>
+      <c r="BC69" s="46"/>
     </row>
     <row r="70" spans="1:55" ht="16">
-      <c r="A70" s="66"/>
+      <c r="A70" s="48"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -5634,29 +5608,29 @@
       <c r="AG70"/>
       <c r="AH70"/>
       <c r="AI70"/>
-      <c r="AJ70" s="112"/>
-      <c r="AK70" s="112"/>
-      <c r="AL70" s="112"/>
-      <c r="AM70" s="112"/>
-      <c r="AN70" s="112"/>
-      <c r="AO70" s="112"/>
-      <c r="AP70" s="112"/>
-      <c r="AQ70" s="112"/>
-      <c r="AR70" s="112"/>
-      <c r="AS70" s="112"/>
-      <c r="AT70" s="116"/>
-      <c r="AU70" s="116"/>
-      <c r="AV70" s="116"/>
-      <c r="AW70" s="116"/>
-      <c r="AX70" s="116"/>
-      <c r="AY70" s="116"/>
-      <c r="AZ70" s="116"/>
-      <c r="BA70" s="116"/>
-      <c r="BB70" s="116"/>
-      <c r="BC70" s="64"/>
+      <c r="AJ70" s="110"/>
+      <c r="AK70" s="110"/>
+      <c r="AL70" s="110"/>
+      <c r="AM70" s="110"/>
+      <c r="AN70" s="110"/>
+      <c r="AO70" s="110"/>
+      <c r="AP70" s="110"/>
+      <c r="AQ70" s="110"/>
+      <c r="AR70" s="110"/>
+      <c r="AS70" s="110"/>
+      <c r="AT70" s="114"/>
+      <c r="AU70" s="114"/>
+      <c r="AV70" s="114"/>
+      <c r="AW70" s="114"/>
+      <c r="AX70" s="114"/>
+      <c r="AY70" s="114"/>
+      <c r="AZ70" s="114"/>
+      <c r="BA70" s="114"/>
+      <c r="BB70" s="114"/>
+      <c r="BC70" s="46"/>
     </row>
     <row r="71" spans="1:55" ht="23.75" customHeight="1">
-      <c r="A71" s="66"/>
+      <c r="A71" s="48"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -5691,29 +5665,29 @@
       <c r="AG71"/>
       <c r="AH71"/>
       <c r="AI71"/>
-      <c r="AJ71" s="117"/>
-      <c r="AK71" s="117"/>
-      <c r="AL71" s="117"/>
-      <c r="AM71" s="117"/>
-      <c r="AN71" s="117"/>
-      <c r="AO71" s="117"/>
-      <c r="AP71" s="117"/>
-      <c r="AQ71" s="117"/>
-      <c r="AR71" s="117"/>
-      <c r="AS71" s="117"/>
-      <c r="AT71" s="116"/>
-      <c r="AU71" s="116"/>
-      <c r="AV71" s="116"/>
-      <c r="AW71" s="116"/>
-      <c r="AX71" s="116"/>
-      <c r="AY71" s="116"/>
-      <c r="AZ71" s="116"/>
-      <c r="BA71" s="116"/>
-      <c r="BB71" s="116"/>
-      <c r="BC71" s="64"/>
+      <c r="AJ71" s="115"/>
+      <c r="AK71" s="115"/>
+      <c r="AL71" s="115"/>
+      <c r="AM71" s="115"/>
+      <c r="AN71" s="115"/>
+      <c r="AO71" s="115"/>
+      <c r="AP71" s="115"/>
+      <c r="AQ71" s="115"/>
+      <c r="AR71" s="115"/>
+      <c r="AS71" s="115"/>
+      <c r="AT71" s="114"/>
+      <c r="AU71" s="114"/>
+      <c r="AV71" s="114"/>
+      <c r="AW71" s="114"/>
+      <c r="AX71" s="114"/>
+      <c r="AY71" s="114"/>
+      <c r="AZ71" s="114"/>
+      <c r="BA71" s="114"/>
+      <c r="BB71" s="114"/>
+      <c r="BC71" s="46"/>
     </row>
     <row r="72" spans="1:55" ht="16">
-      <c r="A72" s="66"/>
+      <c r="A72" s="48"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -5748,29 +5722,29 @@
       <c r="AG72"/>
       <c r="AH72"/>
       <c r="AI72"/>
-      <c r="AJ72" s="112"/>
-      <c r="AK72" s="112"/>
-      <c r="AL72" s="112"/>
-      <c r="AM72" s="112"/>
-      <c r="AN72" s="112"/>
-      <c r="AO72" s="112"/>
-      <c r="AP72" s="112"/>
-      <c r="AQ72" s="112"/>
-      <c r="AR72" s="112"/>
-      <c r="AS72" s="112"/>
-      <c r="AT72" s="116"/>
-      <c r="AU72" s="116"/>
-      <c r="AV72" s="116"/>
-      <c r="AW72" s="116"/>
-      <c r="AX72" s="116"/>
-      <c r="AY72" s="116"/>
-      <c r="AZ72" s="116"/>
-      <c r="BA72" s="116"/>
-      <c r="BB72" s="116"/>
-      <c r="BC72" s="64"/>
+      <c r="AJ72" s="110"/>
+      <c r="AK72" s="110"/>
+      <c r="AL72" s="110"/>
+      <c r="AM72" s="110"/>
+      <c r="AN72" s="110"/>
+      <c r="AO72" s="110"/>
+      <c r="AP72" s="110"/>
+      <c r="AQ72" s="110"/>
+      <c r="AR72" s="110"/>
+      <c r="AS72" s="110"/>
+      <c r="AT72" s="114"/>
+      <c r="AU72" s="114"/>
+      <c r="AV72" s="114"/>
+      <c r="AW72" s="114"/>
+      <c r="AX72" s="114"/>
+      <c r="AY72" s="114"/>
+      <c r="AZ72" s="114"/>
+      <c r="BA72" s="114"/>
+      <c r="BB72" s="114"/>
+      <c r="BC72" s="46"/>
     </row>
     <row r="73" spans="1:55" ht="16">
-      <c r="A73" s="66"/>
+      <c r="A73" s="48"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -5826,328 +5800,328 @@
       <c r="BB73"/>
       <c r="BC73"/>
     </row>
-    <row r="150" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH150" s="68"/>
-      <c r="BI150" s="68"/>
-      <c r="BJ150" s="68"/>
-      <c r="BK150" s="68"/>
-      <c r="BL150" s="68"/>
-      <c r="BM150" s="68"/>
-      <c r="BN150" s="68"/>
-      <c r="BO150" s="68"/>
-    </row>
-    <row r="151" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH151" s="68"/>
-      <c r="BI151" s="68"/>
-      <c r="BJ151" s="68"/>
-      <c r="BK151" s="68"/>
-      <c r="BL151" s="68"/>
-      <c r="BM151" s="68"/>
-      <c r="BN151" s="68"/>
-      <c r="BO151" s="68"/>
-    </row>
-    <row r="152" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH152" s="68"/>
-      <c r="BI152" s="68"/>
-      <c r="BJ152" s="68"/>
-      <c r="BK152" s="68"/>
-      <c r="BL152" s="68"/>
-      <c r="BM152" s="68"/>
-      <c r="BN152" s="68"/>
-      <c r="BO152" s="68"/>
-    </row>
-    <row r="153" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH153" s="68"/>
-      <c r="BI153" s="68"/>
-      <c r="BJ153" s="68"/>
-      <c r="BK153" s="68"/>
-      <c r="BL153" s="68"/>
-      <c r="BM153" s="68"/>
-      <c r="BN153" s="68"/>
-      <c r="BO153" s="68"/>
-    </row>
-    <row r="154" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH154" s="68"/>
-      <c r="BI154" s="68"/>
-      <c r="BJ154" s="68"/>
-      <c r="BK154" s="68"/>
-      <c r="BL154" s="68"/>
-      <c r="BM154" s="68"/>
-      <c r="BN154" s="68"/>
-      <c r="BO154" s="68"/>
-    </row>
-    <row r="155" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH155" s="68"/>
-      <c r="BI155" s="68"/>
-      <c r="BJ155" s="68"/>
-      <c r="BK155" s="68"/>
-      <c r="BL155" s="68"/>
-      <c r="BM155" s="68"/>
-      <c r="BN155" s="68"/>
-      <c r="BO155" s="68"/>
-    </row>
-    <row r="156" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH156" s="68"/>
-      <c r="BI156" s="68"/>
-      <c r="BJ156" s="68"/>
-      <c r="BK156" s="68"/>
-      <c r="BL156" s="68"/>
-      <c r="BM156" s="68"/>
-      <c r="BN156" s="68"/>
-      <c r="BO156" s="68"/>
-    </row>
-    <row r="157" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH157" s="68"/>
-      <c r="BI157" s="68"/>
-      <c r="BJ157" s="68"/>
-      <c r="BK157" s="68"/>
-      <c r="BL157" s="68"/>
-      <c r="BM157" s="68"/>
-      <c r="BN157" s="68"/>
-      <c r="BO157" s="68"/>
-    </row>
-    <row r="158" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH158" s="68"/>
-      <c r="BI158" s="68"/>
-      <c r="BJ158" s="68"/>
-      <c r="BK158" s="68"/>
-      <c r="BL158" s="68"/>
-      <c r="BM158" s="68"/>
-      <c r="BN158" s="68"/>
-      <c r="BO158" s="68"/>
-    </row>
-    <row r="159" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH159" s="68"/>
-      <c r="BI159" s="68"/>
-      <c r="BJ159" s="68"/>
-      <c r="BK159" s="68"/>
-      <c r="BL159" s="68"/>
-      <c r="BM159" s="68"/>
-      <c r="BN159" s="68"/>
-      <c r="BO159" s="68"/>
-    </row>
-    <row r="160" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH160" s="68"/>
-      <c r="BI160" s="68"/>
-      <c r="BJ160" s="68"/>
-      <c r="BK160" s="68"/>
-      <c r="BL160" s="68"/>
-      <c r="BM160" s="68"/>
-      <c r="BN160" s="68"/>
-      <c r="BO160" s="68"/>
-    </row>
-    <row r="161" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH161" s="68"/>
-      <c r="BI161" s="68"/>
-      <c r="BJ161" s="68"/>
-      <c r="BK161" s="68"/>
-      <c r="BL161" s="68"/>
-      <c r="BM161" s="68"/>
-      <c r="BN161" s="68"/>
-      <c r="BO161" s="68"/>
-    </row>
-    <row r="162" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH162" s="68"/>
-      <c r="BI162" s="68"/>
-      <c r="BJ162" s="68"/>
-      <c r="BK162" s="68"/>
-      <c r="BL162" s="68"/>
-      <c r="BM162" s="68"/>
-      <c r="BN162" s="68"/>
-      <c r="BO162" s="68"/>
-    </row>
-    <row r="163" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH163" s="68"/>
-      <c r="BI163" s="68"/>
-      <c r="BJ163" s="68"/>
-      <c r="BK163" s="68"/>
-      <c r="BL163" s="68"/>
-      <c r="BM163" s="68"/>
-      <c r="BN163" s="68"/>
-      <c r="BO163" s="68"/>
-    </row>
-    <row r="164" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH164" s="68"/>
-      <c r="BI164" s="68"/>
-      <c r="BJ164" s="68"/>
-      <c r="BK164" s="68"/>
-      <c r="BL164" s="68"/>
-      <c r="BM164" s="68"/>
-      <c r="BN164" s="68"/>
-      <c r="BO164" s="68"/>
-    </row>
-    <row r="165" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH165" s="68"/>
-      <c r="BI165" s="68"/>
-      <c r="BJ165" s="68"/>
-      <c r="BK165" s="68"/>
-      <c r="BL165" s="68"/>
-      <c r="BM165" s="68"/>
-      <c r="BN165" s="68"/>
-      <c r="BO165" s="68"/>
-    </row>
-    <row r="166" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH166" s="68"/>
-      <c r="BI166" s="68"/>
-      <c r="BJ166" s="68"/>
-      <c r="BK166" s="68"/>
-      <c r="BL166" s="68"/>
-      <c r="BM166" s="68"/>
-      <c r="BN166" s="68"/>
-      <c r="BO166" s="68"/>
-    </row>
-    <row r="167" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH167" s="68"/>
-      <c r="BI167" s="68"/>
-      <c r="BJ167" s="68"/>
-      <c r="BK167" s="68"/>
-      <c r="BL167" s="68"/>
-      <c r="BM167" s="68"/>
-      <c r="BN167" s="68"/>
-      <c r="BO167" s="68"/>
-    </row>
-    <row r="168" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH168" s="68"/>
-      <c r="BI168" s="68"/>
-      <c r="BJ168" s="68"/>
-      <c r="BK168" s="68"/>
-      <c r="BL168" s="68"/>
-      <c r="BM168" s="68"/>
-      <c r="BN168" s="68"/>
-      <c r="BO168" s="68"/>
-    </row>
-    <row r="169" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH169" s="68"/>
-      <c r="BI169" s="68"/>
-      <c r="BJ169" s="68"/>
-      <c r="BK169" s="68"/>
-      <c r="BL169" s="68"/>
-      <c r="BM169" s="68"/>
-      <c r="BN169" s="68"/>
-      <c r="BO169" s="68"/>
-    </row>
-    <row r="170" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH170" s="68"/>
-      <c r="BI170" s="68"/>
-      <c r="BJ170" s="68"/>
-      <c r="BK170" s="68"/>
-      <c r="BL170" s="68"/>
-      <c r="BM170" s="68"/>
-      <c r="BN170" s="68"/>
-      <c r="BO170" s="68"/>
-    </row>
-    <row r="171" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH171" s="68"/>
-      <c r="BI171" s="68"/>
-      <c r="BJ171" s="68"/>
-      <c r="BK171" s="68"/>
-      <c r="BL171" s="68"/>
-      <c r="BM171" s="68"/>
-      <c r="BN171" s="68"/>
-      <c r="BO171" s="68"/>
-    </row>
-    <row r="172" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH172" s="68"/>
-      <c r="BI172" s="68"/>
-      <c r="BJ172" s="68"/>
-      <c r="BK172" s="68"/>
-      <c r="BL172" s="68"/>
-      <c r="BM172" s="68"/>
-      <c r="BN172" s="68"/>
-      <c r="BO172" s="68"/>
-    </row>
-    <row r="173" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH173" s="68"/>
-      <c r="BI173" s="68"/>
-      <c r="BJ173" s="68"/>
-      <c r="BK173" s="68"/>
-      <c r="BL173" s="68"/>
-      <c r="BM173" s="68"/>
-      <c r="BN173" s="68"/>
-      <c r="BO173" s="68"/>
-    </row>
-    <row r="174" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH174" s="68"/>
-      <c r="BI174" s="68"/>
-      <c r="BJ174" s="68"/>
-      <c r="BK174" s="68"/>
-      <c r="BL174" s="68"/>
-      <c r="BM174" s="68"/>
-      <c r="BN174" s="68"/>
-      <c r="BO174" s="68"/>
-    </row>
-    <row r="175" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH175" s="68"/>
-      <c r="BI175" s="68"/>
-      <c r="BJ175" s="68"/>
-      <c r="BK175" s="68"/>
-      <c r="BL175" s="68"/>
-      <c r="BM175" s="68"/>
-      <c r="BN175" s="68"/>
-      <c r="BO175" s="68"/>
-    </row>
-    <row r="176" spans="60:67" s="67" customFormat="1" ht="16">
-      <c r="BH176" s="68"/>
-      <c r="BI176" s="68"/>
-      <c r="BJ176" s="68"/>
-      <c r="BK176" s="68"/>
-      <c r="BL176" s="68"/>
-      <c r="BM176" s="68"/>
-      <c r="BN176" s="68"/>
-      <c r="BO176" s="68"/>
-    </row>
-    <row r="177" spans="1:67" s="67" customFormat="1" ht="16">
-      <c r="BH177" s="68"/>
-      <c r="BI177" s="68"/>
-      <c r="BJ177" s="68"/>
-      <c r="BK177" s="68"/>
-      <c r="BL177" s="68"/>
-      <c r="BM177" s="68"/>
-      <c r="BN177" s="68"/>
-      <c r="BO177" s="68"/>
-    </row>
-    <row r="178" spans="1:67" s="67" customFormat="1" ht="16">
-      <c r="BH178" s="68"/>
-      <c r="BI178" s="68"/>
-      <c r="BJ178" s="68"/>
-      <c r="BK178" s="68"/>
-      <c r="BL178" s="68"/>
-      <c r="BM178" s="68"/>
-      <c r="BN178" s="68"/>
-      <c r="BO178" s="68"/>
-    </row>
-    <row r="179" spans="1:67" s="67" customFormat="1" ht="16">
-      <c r="BH179" s="68"/>
-      <c r="BI179" s="68"/>
-      <c r="BJ179" s="68"/>
-      <c r="BK179" s="68"/>
-      <c r="BL179" s="68"/>
-      <c r="BM179" s="68"/>
-      <c r="BN179" s="68"/>
-      <c r="BO179" s="68"/>
-    </row>
-    <row r="180" spans="1:67" s="67" customFormat="1" ht="16">
-      <c r="BH180" s="68"/>
-      <c r="BI180" s="68"/>
-      <c r="BJ180" s="68"/>
-      <c r="BK180" s="68"/>
-      <c r="BL180" s="68"/>
-      <c r="BM180" s="68"/>
-      <c r="BN180" s="68"/>
-      <c r="BO180" s="68"/>
-    </row>
-    <row r="181" spans="1:67" s="67" customFormat="1" ht="16">
-      <c r="BH181" s="68"/>
-      <c r="BI181" s="68"/>
-      <c r="BJ181" s="68"/>
-      <c r="BK181" s="68"/>
-      <c r="BL181" s="68"/>
-      <c r="BM181" s="68"/>
-      <c r="BN181" s="68"/>
-      <c r="BO181" s="68"/>
+    <row r="150" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH150" s="50"/>
+      <c r="BI150" s="50"/>
+      <c r="BJ150" s="50"/>
+      <c r="BK150" s="50"/>
+      <c r="BL150" s="50"/>
+      <c r="BM150" s="50"/>
+      <c r="BN150" s="50"/>
+      <c r="BO150" s="50"/>
+    </row>
+    <row r="151" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH151" s="50"/>
+      <c r="BI151" s="50"/>
+      <c r="BJ151" s="50"/>
+      <c r="BK151" s="50"/>
+      <c r="BL151" s="50"/>
+      <c r="BM151" s="50"/>
+      <c r="BN151" s="50"/>
+      <c r="BO151" s="50"/>
+    </row>
+    <row r="152" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH152" s="50"/>
+      <c r="BI152" s="50"/>
+      <c r="BJ152" s="50"/>
+      <c r="BK152" s="50"/>
+      <c r="BL152" s="50"/>
+      <c r="BM152" s="50"/>
+      <c r="BN152" s="50"/>
+      <c r="BO152" s="50"/>
+    </row>
+    <row r="153" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH153" s="50"/>
+      <c r="BI153" s="50"/>
+      <c r="BJ153" s="50"/>
+      <c r="BK153" s="50"/>
+      <c r="BL153" s="50"/>
+      <c r="BM153" s="50"/>
+      <c r="BN153" s="50"/>
+      <c r="BO153" s="50"/>
+    </row>
+    <row r="154" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH154" s="50"/>
+      <c r="BI154" s="50"/>
+      <c r="BJ154" s="50"/>
+      <c r="BK154" s="50"/>
+      <c r="BL154" s="50"/>
+      <c r="BM154" s="50"/>
+      <c r="BN154" s="50"/>
+      <c r="BO154" s="50"/>
+    </row>
+    <row r="155" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH155" s="50"/>
+      <c r="BI155" s="50"/>
+      <c r="BJ155" s="50"/>
+      <c r="BK155" s="50"/>
+      <c r="BL155" s="50"/>
+      <c r="BM155" s="50"/>
+      <c r="BN155" s="50"/>
+      <c r="BO155" s="50"/>
+    </row>
+    <row r="156" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH156" s="50"/>
+      <c r="BI156" s="50"/>
+      <c r="BJ156" s="50"/>
+      <c r="BK156" s="50"/>
+      <c r="BL156" s="50"/>
+      <c r="BM156" s="50"/>
+      <c r="BN156" s="50"/>
+      <c r="BO156" s="50"/>
+    </row>
+    <row r="157" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH157" s="50"/>
+      <c r="BI157" s="50"/>
+      <c r="BJ157" s="50"/>
+      <c r="BK157" s="50"/>
+      <c r="BL157" s="50"/>
+      <c r="BM157" s="50"/>
+      <c r="BN157" s="50"/>
+      <c r="BO157" s="50"/>
+    </row>
+    <row r="158" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH158" s="50"/>
+      <c r="BI158" s="50"/>
+      <c r="BJ158" s="50"/>
+      <c r="BK158" s="50"/>
+      <c r="BL158" s="50"/>
+      <c r="BM158" s="50"/>
+      <c r="BN158" s="50"/>
+      <c r="BO158" s="50"/>
+    </row>
+    <row r="159" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH159" s="50"/>
+      <c r="BI159" s="50"/>
+      <c r="BJ159" s="50"/>
+      <c r="BK159" s="50"/>
+      <c r="BL159" s="50"/>
+      <c r="BM159" s="50"/>
+      <c r="BN159" s="50"/>
+      <c r="BO159" s="50"/>
+    </row>
+    <row r="160" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH160" s="50"/>
+      <c r="BI160" s="50"/>
+      <c r="BJ160" s="50"/>
+      <c r="BK160" s="50"/>
+      <c r="BL160" s="50"/>
+      <c r="BM160" s="50"/>
+      <c r="BN160" s="50"/>
+      <c r="BO160" s="50"/>
+    </row>
+    <row r="161" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH161" s="50"/>
+      <c r="BI161" s="50"/>
+      <c r="BJ161" s="50"/>
+      <c r="BK161" s="50"/>
+      <c r="BL161" s="50"/>
+      <c r="BM161" s="50"/>
+      <c r="BN161" s="50"/>
+      <c r="BO161" s="50"/>
+    </row>
+    <row r="162" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH162" s="50"/>
+      <c r="BI162" s="50"/>
+      <c r="BJ162" s="50"/>
+      <c r="BK162" s="50"/>
+      <c r="BL162" s="50"/>
+      <c r="BM162" s="50"/>
+      <c r="BN162" s="50"/>
+      <c r="BO162" s="50"/>
+    </row>
+    <row r="163" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH163" s="50"/>
+      <c r="BI163" s="50"/>
+      <c r="BJ163" s="50"/>
+      <c r="BK163" s="50"/>
+      <c r="BL163" s="50"/>
+      <c r="BM163" s="50"/>
+      <c r="BN163" s="50"/>
+      <c r="BO163" s="50"/>
+    </row>
+    <row r="164" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH164" s="50"/>
+      <c r="BI164" s="50"/>
+      <c r="BJ164" s="50"/>
+      <c r="BK164" s="50"/>
+      <c r="BL164" s="50"/>
+      <c r="BM164" s="50"/>
+      <c r="BN164" s="50"/>
+      <c r="BO164" s="50"/>
+    </row>
+    <row r="165" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH165" s="50"/>
+      <c r="BI165" s="50"/>
+      <c r="BJ165" s="50"/>
+      <c r="BK165" s="50"/>
+      <c r="BL165" s="50"/>
+      <c r="BM165" s="50"/>
+      <c r="BN165" s="50"/>
+      <c r="BO165" s="50"/>
+    </row>
+    <row r="166" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH166" s="50"/>
+      <c r="BI166" s="50"/>
+      <c r="BJ166" s="50"/>
+      <c r="BK166" s="50"/>
+      <c r="BL166" s="50"/>
+      <c r="BM166" s="50"/>
+      <c r="BN166" s="50"/>
+      <c r="BO166" s="50"/>
+    </row>
+    <row r="167" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH167" s="50"/>
+      <c r="BI167" s="50"/>
+      <c r="BJ167" s="50"/>
+      <c r="BK167" s="50"/>
+      <c r="BL167" s="50"/>
+      <c r="BM167" s="50"/>
+      <c r="BN167" s="50"/>
+      <c r="BO167" s="50"/>
+    </row>
+    <row r="168" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH168" s="50"/>
+      <c r="BI168" s="50"/>
+      <c r="BJ168" s="50"/>
+      <c r="BK168" s="50"/>
+      <c r="BL168" s="50"/>
+      <c r="BM168" s="50"/>
+      <c r="BN168" s="50"/>
+      <c r="BO168" s="50"/>
+    </row>
+    <row r="169" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH169" s="50"/>
+      <c r="BI169" s="50"/>
+      <c r="BJ169" s="50"/>
+      <c r="BK169" s="50"/>
+      <c r="BL169" s="50"/>
+      <c r="BM169" s="50"/>
+      <c r="BN169" s="50"/>
+      <c r="BO169" s="50"/>
+    </row>
+    <row r="170" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH170" s="50"/>
+      <c r="BI170" s="50"/>
+      <c r="BJ170" s="50"/>
+      <c r="BK170" s="50"/>
+      <c r="BL170" s="50"/>
+      <c r="BM170" s="50"/>
+      <c r="BN170" s="50"/>
+      <c r="BO170" s="50"/>
+    </row>
+    <row r="171" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH171" s="50"/>
+      <c r="BI171" s="50"/>
+      <c r="BJ171" s="50"/>
+      <c r="BK171" s="50"/>
+      <c r="BL171" s="50"/>
+      <c r="BM171" s="50"/>
+      <c r="BN171" s="50"/>
+      <c r="BO171" s="50"/>
+    </row>
+    <row r="172" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH172" s="50"/>
+      <c r="BI172" s="50"/>
+      <c r="BJ172" s="50"/>
+      <c r="BK172" s="50"/>
+      <c r="BL172" s="50"/>
+      <c r="BM172" s="50"/>
+      <c r="BN172" s="50"/>
+      <c r="BO172" s="50"/>
+    </row>
+    <row r="173" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH173" s="50"/>
+      <c r="BI173" s="50"/>
+      <c r="BJ173" s="50"/>
+      <c r="BK173" s="50"/>
+      <c r="BL173" s="50"/>
+      <c r="BM173" s="50"/>
+      <c r="BN173" s="50"/>
+      <c r="BO173" s="50"/>
+    </row>
+    <row r="174" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH174" s="50"/>
+      <c r="BI174" s="50"/>
+      <c r="BJ174" s="50"/>
+      <c r="BK174" s="50"/>
+      <c r="BL174" s="50"/>
+      <c r="BM174" s="50"/>
+      <c r="BN174" s="50"/>
+      <c r="BO174" s="50"/>
+    </row>
+    <row r="175" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH175" s="50"/>
+      <c r="BI175" s="50"/>
+      <c r="BJ175" s="50"/>
+      <c r="BK175" s="50"/>
+      <c r="BL175" s="50"/>
+      <c r="BM175" s="50"/>
+      <c r="BN175" s="50"/>
+      <c r="BO175" s="50"/>
+    </row>
+    <row r="176" spans="60:67" s="49" customFormat="1" ht="16">
+      <c r="BH176" s="50"/>
+      <c r="BI176" s="50"/>
+      <c r="BJ176" s="50"/>
+      <c r="BK176" s="50"/>
+      <c r="BL176" s="50"/>
+      <c r="BM176" s="50"/>
+      <c r="BN176" s="50"/>
+      <c r="BO176" s="50"/>
+    </row>
+    <row r="177" spans="1:67" s="49" customFormat="1" ht="16">
+      <c r="BH177" s="50"/>
+      <c r="BI177" s="50"/>
+      <c r="BJ177" s="50"/>
+      <c r="BK177" s="50"/>
+      <c r="BL177" s="50"/>
+      <c r="BM177" s="50"/>
+      <c r="BN177" s="50"/>
+      <c r="BO177" s="50"/>
+    </row>
+    <row r="178" spans="1:67" s="49" customFormat="1" ht="16">
+      <c r="BH178" s="50"/>
+      <c r="BI178" s="50"/>
+      <c r="BJ178" s="50"/>
+      <c r="BK178" s="50"/>
+      <c r="BL178" s="50"/>
+      <c r="BM178" s="50"/>
+      <c r="BN178" s="50"/>
+      <c r="BO178" s="50"/>
+    </row>
+    <row r="179" spans="1:67" s="49" customFormat="1" ht="16">
+      <c r="BH179" s="50"/>
+      <c r="BI179" s="50"/>
+      <c r="BJ179" s="50"/>
+      <c r="BK179" s="50"/>
+      <c r="BL179" s="50"/>
+      <c r="BM179" s="50"/>
+      <c r="BN179" s="50"/>
+      <c r="BO179" s="50"/>
+    </row>
+    <row r="180" spans="1:67" s="49" customFormat="1" ht="16">
+      <c r="BH180" s="50"/>
+      <c r="BI180" s="50"/>
+      <c r="BJ180" s="50"/>
+      <c r="BK180" s="50"/>
+      <c r="BL180" s="50"/>
+      <c r="BM180" s="50"/>
+      <c r="BN180" s="50"/>
+      <c r="BO180" s="50"/>
+    </row>
+    <row r="181" spans="1:67" s="49" customFormat="1" ht="16">
+      <c r="BH181" s="50"/>
+      <c r="BI181" s="50"/>
+      <c r="BJ181" s="50"/>
+      <c r="BK181" s="50"/>
+      <c r="BL181" s="50"/>
+      <c r="BM181" s="50"/>
+      <c r="BN181" s="50"/>
+      <c r="BO181" s="50"/>
     </row>
     <row r="182" spans="1:67">
-      <c r="A182" s="69"/>
+      <c r="A182" s="51"/>
     </row>
     <row r="185" spans="1:67">
       <c r="A185" s="17" t="s">
@@ -6167,6 +6141,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="298">
+    <mergeCell ref="AT64:BB64"/>
+    <mergeCell ref="AJ65:AS65"/>
+    <mergeCell ref="AT65:BB65"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="AJ63:AS63"/>
+    <mergeCell ref="AT63:BB63"/>
     <mergeCell ref="AJ72:AS72"/>
     <mergeCell ref="AT72:BB72"/>
     <mergeCell ref="AJ69:AS69"/>
@@ -6181,18 +6163,6 @@
     <mergeCell ref="AT67:BB67"/>
     <mergeCell ref="AJ68:AS68"/>
     <mergeCell ref="AT68:BB68"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="AJ64:AS64"/>
-    <mergeCell ref="AT64:BB64"/>
-    <mergeCell ref="AJ65:AS65"/>
-    <mergeCell ref="AT65:BB65"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="AJ63:AS63"/>
-    <mergeCell ref="AT63:BB63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="E64:F64"/>
@@ -6202,6 +6172,10 @@
     <mergeCell ref="T62:AE62"/>
     <mergeCell ref="AG62:AH62"/>
     <mergeCell ref="AJ62:AS62"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="AJ64:AS64"/>
     <mergeCell ref="AT62:BB62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="C63:D63"/>
@@ -6218,6 +6192,11 @@
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:O62"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
     <mergeCell ref="AT60:BB60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="C61:D61"/>
@@ -6234,16 +6213,6 @@
     <mergeCell ref="T60:AE60"/>
     <mergeCell ref="AG60:AH60"/>
     <mergeCell ref="AJ60:AS60"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="T59:AE59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AJ59:AS59"/>
-    <mergeCell ref="AT59:BB59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
     <mergeCell ref="AG58:AH58"/>
     <mergeCell ref="AJ58:AS58"/>
     <mergeCell ref="AT58:BB58"/>
@@ -6254,7 +6223,11 @@
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="M59:O59"/>
-    <mergeCell ref="AT57:BB57"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="T59:AE59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AJ59:AS59"/>
+    <mergeCell ref="AT59:BB59"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="E58:F58"/>
@@ -6264,14 +6237,6 @@
     <mergeCell ref="M58:O58"/>
     <mergeCell ref="P58:R58"/>
     <mergeCell ref="T58:AE58"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="T57:AE57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AJ57:AS57"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="T56:AE56"/>
     <mergeCell ref="AG56:AH56"/>
     <mergeCell ref="AJ56:AS56"/>
     <mergeCell ref="AT56:BB56"/>
@@ -6280,9 +6245,13 @@
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="I57:J57"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AJ55:AS55"/>
-    <mergeCell ref="AT55:BB55"/>
+    <mergeCell ref="AT57:BB57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="T57:AE57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AJ57:AS57"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="E56:F56"/>
@@ -6290,6 +6259,13 @@
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="T56:AE56"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
     <mergeCell ref="AT54:BB54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="C55:D55"/>
@@ -6306,16 +6282,9 @@
     <mergeCell ref="T54:AE54"/>
     <mergeCell ref="AG54:AH54"/>
     <mergeCell ref="AJ54:AS54"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="T53:AE53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AJ53:AS53"/>
-    <mergeCell ref="AT53:BB53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AJ55:AS55"/>
+    <mergeCell ref="AT55:BB55"/>
     <mergeCell ref="AG52:AH52"/>
     <mergeCell ref="AJ52:AS52"/>
     <mergeCell ref="AT52:BB52"/>
@@ -6326,7 +6295,11 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:O53"/>
-    <mergeCell ref="AT51:BB51"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="T53:AE53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AJ53:AS53"/>
+    <mergeCell ref="AT53:BB53"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
@@ -6336,14 +6309,6 @@
     <mergeCell ref="M52:O52"/>
     <mergeCell ref="P52:R52"/>
     <mergeCell ref="T52:AE52"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="T51:AE51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AJ51:AS51"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="T50:AE50"/>
     <mergeCell ref="AG50:AH50"/>
     <mergeCell ref="AJ50:AS50"/>
     <mergeCell ref="AT50:BB50"/>
@@ -6352,9 +6317,13 @@
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="I51:J51"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AJ49:AS49"/>
-    <mergeCell ref="AT49:BB49"/>
+    <mergeCell ref="AT51:BB51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="T51:AE51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AJ51:AS51"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:F50"/>
@@ -6362,6 +6331,13 @@
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="T50:AE50"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
     <mergeCell ref="AT48:BB48"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
@@ -6378,16 +6354,9 @@
     <mergeCell ref="T48:AE48"/>
     <mergeCell ref="AG48:AH48"/>
     <mergeCell ref="AJ48:AS48"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="T47:AE47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AJ47:AS47"/>
-    <mergeCell ref="AT47:BB47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AJ49:AS49"/>
+    <mergeCell ref="AT49:BB49"/>
     <mergeCell ref="AG46:AH46"/>
     <mergeCell ref="AJ46:AS46"/>
     <mergeCell ref="AT46:BB46"/>
@@ -6398,7 +6367,11 @@
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="M47:O47"/>
-    <mergeCell ref="AT45:BB45"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="T47:AE47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AJ47:AS47"/>
+    <mergeCell ref="AT47:BB47"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:F46"/>
@@ -6408,14 +6381,6 @@
     <mergeCell ref="M46:O46"/>
     <mergeCell ref="P46:R46"/>
     <mergeCell ref="T46:AE46"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="T45:AE45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AJ45:AS45"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
     <mergeCell ref="A43:R43"/>
     <mergeCell ref="T43:AH43"/>
     <mergeCell ref="AJ43:BC43"/>
@@ -6430,6 +6395,13 @@
     <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="AJ30:AN30"/>
     <mergeCell ref="AO30:AR30"/>
+    <mergeCell ref="AT45:BB45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="T45:AE45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AJ45:AS45"/>
     <mergeCell ref="F22:AL22"/>
     <mergeCell ref="F23:AL23"/>
     <mergeCell ref="F25:AL25"/>
@@ -6440,6 +6412,8 @@
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:N30"/>
     <mergeCell ref="O30:R30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
     <mergeCell ref="E16:AL16"/>
     <mergeCell ref="AQ16:BC16"/>
     <mergeCell ref="E17:AL17"/>
@@ -6467,7 +6441,7 @@
     <mergeCell ref="AR5:BC5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F25:AL25">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F25:AL25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$186:$A$187</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6483,7 +6457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
@@ -6500,126 +6474,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="52" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="53" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="53" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="53" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="53" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="53" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="53" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6635,7 +6609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
@@ -6644,376 +6618,376 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" style="73" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" style="73" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="73" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="73" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="73" customWidth="1"/>
-    <col min="7" max="8" width="7" style="73" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="73" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="73" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="73" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" style="73" customWidth="1"/>
-    <col min="13" max="13" width="5" style="73" customWidth="1"/>
-    <col min="14" max="21" width="3.83203125" style="73" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="73"/>
+    <col min="1" max="1" width="6.83203125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="55" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="55" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="55" customWidth="1"/>
+    <col min="7" max="8" width="7" style="55" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="55" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="55" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="55" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="55" customWidth="1"/>
+    <col min="13" max="13" width="5" style="55" customWidth="1"/>
+    <col min="14" max="21" width="3.83203125" style="55" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
     </row>
     <row r="2" spans="1:21" ht="10.5" customHeight="1"/>
-    <row r="3" spans="1:21" s="74" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+    <row r="3" spans="1:21" s="56" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122" t="s">
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="120" t="s">
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-    </row>
-    <row r="4" spans="1:21" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="120"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="124" t="s">
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+    </row>
+    <row r="4" spans="1:21" s="56" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122" t="s">
+      <c r="F4" s="122"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="122" t="s">
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="125" t="s">
+      <c r="N4" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125" t="s">
+      <c r="O4" s="117"/>
+      <c r="P4" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125" t="s">
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125" t="s">
+      <c r="S4" s="117"/>
+      <c r="T4" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="U4" s="125"/>
-    </row>
-    <row r="5" spans="1:21" s="74" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124" t="s">
+      <c r="U4" s="117"/>
+    </row>
+    <row r="5" spans="1:21" s="56" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="126" t="s">
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="122" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="125" t="s">
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-    </row>
-    <row r="6" spans="1:21" s="74" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="75">
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+    </row>
+    <row r="6" spans="1:21" s="56" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="57">
         <v>1</v>
       </c>
-      <c r="O6" s="75">
+      <c r="O6" s="57">
         <v>2</v>
       </c>
-      <c r="P6" s="75">
+      <c r="P6" s="57">
         <v>3</v>
       </c>
-      <c r="Q6" s="75">
+      <c r="Q6" s="57">
         <v>4</v>
       </c>
-      <c r="R6" s="75">
+      <c r="R6" s="57">
         <v>5</v>
       </c>
-      <c r="S6" s="75">
+      <c r="S6" s="57">
         <v>6</v>
       </c>
-      <c r="T6" s="75">
+      <c r="T6" s="57">
         <v>7</v>
       </c>
-      <c r="U6" s="75">
+      <c r="U6" s="57">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="74" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A7" s="120"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="121" t="s">
+    <row r="7" spans="1:21" s="56" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="119"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="121" t="s">
+      <c r="K7" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="121" t="s">
+      <c r="L7" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="M7" s="122"/>
-      <c r="N7" s="125" t="s">
+      <c r="M7" s="121"/>
+      <c r="N7" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-    </row>
-    <row r="8" spans="1:21" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="75">
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+    </row>
+    <row r="8" spans="1:21" s="56" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="57">
         <v>0</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="57">
         <v>0</v>
       </c>
-      <c r="P8" s="75">
+      <c r="P8" s="57">
         <v>0</v>
       </c>
-      <c r="Q8" s="75">
+      <c r="Q8" s="57">
         <v>0</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="57">
         <v>0</v>
       </c>
-      <c r="S8" s="75">
+      <c r="S8" s="57">
         <v>0</v>
       </c>
-      <c r="T8" s="75">
+      <c r="T8" s="57">
         <v>0</v>
       </c>
-      <c r="U8" s="75">
+      <c r="U8" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="13">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
     </row>
     <row r="10" spans="1:21" ht="13">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
     </row>
     <row r="11" spans="1:21" ht="13">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
     </row>
     <row r="12" spans="1:21" ht="13">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
     </row>
     <row r="13" spans="1:21" ht="13">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="128" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="129" t="s">
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
